--- a/02-Schede/Calendario_Finanziario_Annuale_2026_v22.xlsx
+++ b/02-Schede/Calendario_Finanziario_Annuale_2026_v22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sommario" sheetId="1" state="visible" r:id="rId3"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="122">
   <si>
     <t xml:space="preserve">Mese</t>
   </si>
@@ -213,9 +213,6 @@
     <t xml:space="preserve">JANUARY 2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Residuo (fisso)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saldo netto mese</t>
   </si>
   <si>
@@ -354,10 +351,7 @@
     <t xml:space="preserve">Cibo</t>
   </si>
   <si>
-    <t xml:space="preserve">Spinaci (2€/giorno)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spesa cumulata mensile: 2€/giorno.</t>
+    <t xml:space="preserve">Spinaci extra</t>
   </si>
   <si>
     <t xml:space="preserve">Regole operative del mese (promemoria)</t>
@@ -385,6 +379,9 @@
   </si>
   <si>
     <t xml:space="preserve">Zona rossa 25→3. Mai saltare.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spesa cumulata mensile: 2€/giorno.</t>
   </si>
   <si>
     <t xml:space="preserve">MARCH 2026</t>
@@ -1042,12 +1039,12 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.32"/>
   </cols>
@@ -1077,11 +1074,11 @@
       </c>
       <c r="B3" s="3" t="n">
         <f aca="false">'01-Jan'!$K$2</f>
-        <v>260.45</v>
+        <v>322.45</v>
       </c>
       <c r="C3" s="3" t="n">
         <f aca="false">C2+B3</f>
-        <v>460.45</v>
+        <v>522.45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,11 +1087,11 @@
       </c>
       <c r="B4" s="3" t="n">
         <f aca="false">'02-Feb'!$K$2</f>
-        <v>64.25</v>
+        <v>120.25</v>
       </c>
       <c r="C4" s="3" t="n">
         <f aca="false">C3+B4</f>
-        <v>524.7</v>
+        <v>642.7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,11 +1100,11 @@
       </c>
       <c r="B5" s="3" t="n">
         <f aca="false">'03-Mar'!$K$2</f>
-        <v>-199.56</v>
+        <v>-137.56</v>
       </c>
       <c r="C5" s="3" t="n">
         <f aca="false">C4+B5</f>
-        <v>325.14</v>
+        <v>505.14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1116,11 +1113,11 @@
       </c>
       <c r="B6" s="3" t="n">
         <f aca="false">'04-Apr'!$K$2</f>
-        <v>126.44</v>
+        <v>186.44</v>
       </c>
       <c r="C6" s="3" t="n">
         <f aca="false">C5+B6</f>
-        <v>451.58</v>
+        <v>691.58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,11 +1126,11 @@
       </c>
       <c r="B7" s="3" t="n">
         <f aca="false">'05-May'!$K$2</f>
-        <v>-95.75</v>
+        <v>-33.75</v>
       </c>
       <c r="C7" s="3" t="n">
         <f aca="false">C6+B7</f>
-        <v>355.83</v>
+        <v>657.83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1142,11 +1139,11 @@
       </c>
       <c r="B8" s="3" t="n">
         <f aca="false">'06-Jun'!$K$2</f>
-        <v>2336.44</v>
+        <v>2396.44</v>
       </c>
       <c r="C8" s="3" t="n">
         <f aca="false">C7+B8</f>
-        <v>2692.27</v>
+        <v>3054.27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,11 +1152,11 @@
       </c>
       <c r="B9" s="3" t="n">
         <f aca="false">'07-Jul'!$K$2</f>
-        <v>-369.56</v>
+        <v>-307.56</v>
       </c>
       <c r="C9" s="3" t="n">
         <f aca="false">C8+B9</f>
-        <v>2322.71</v>
+        <v>2746.71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1168,11 +1165,11 @@
       </c>
       <c r="B10" s="3" t="n">
         <f aca="false">'08-Aug'!$K$2</f>
-        <v>-281.75</v>
+        <v>-219.75</v>
       </c>
       <c r="C10" s="3" t="n">
         <f aca="false">C9+B10</f>
-        <v>2040.96</v>
+        <v>2526.96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,11 +1178,11 @@
       </c>
       <c r="B11" s="3" t="n">
         <f aca="false">'09-Sep'!$K$2</f>
-        <v>-367.56</v>
+        <v>-307.56</v>
       </c>
       <c r="C11" s="3" t="n">
         <f aca="false">C10+B11</f>
-        <v>1673.4</v>
+        <v>2219.4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,11 +1191,11 @@
       </c>
       <c r="B12" s="3" t="n">
         <f aca="false">'10-Oct'!$K$2</f>
-        <v>-45.56</v>
+        <v>16.44</v>
       </c>
       <c r="C12" s="3" t="n">
         <f aca="false">C11+B12</f>
-        <v>1627.84</v>
+        <v>2235.84</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,11 +1204,11 @@
       </c>
       <c r="B13" s="3" t="n">
         <f aca="false">'11-Nov'!$K$2</f>
-        <v>-603.75</v>
+        <v>-543.75</v>
       </c>
       <c r="C13" s="3" t="n">
         <f aca="false">C12+B13</f>
-        <v>1024.09</v>
+        <v>1692.09</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,11 +1217,11 @@
       </c>
       <c r="B14" s="3" t="n">
         <f aca="false">'12-Dec'!$K$2</f>
-        <v>2164.44</v>
+        <v>2226.44</v>
       </c>
       <c r="C14" s="3" t="n">
         <f aca="false">C13+B14</f>
-        <v>3188.53</v>
+        <v>3918.53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,11 +1230,11 @@
       </c>
       <c r="B15" s="5" t="n">
         <f aca="false">SUM(B3:B14)</f>
-        <v>2988.53</v>
+        <v>3718.53</v>
       </c>
       <c r="C15" s="5" t="n">
         <f aca="false">C14</f>
-        <v>3188.53</v>
+        <v>3918.53</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1258,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1271,7 +1268,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -1279,7 +1276,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1289,52 +1286,47 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-369.56</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-369.56</v>
+        <v>-307.56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">'06-Jun'!$K$3+$K$2</f>
-        <v>2122.71</v>
+        <v>2546.71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1342,22 +1334,22 @@
         <v>46204</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>-742</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -1366,22 +1358,22 @@
         <v>46204</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>-38</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -1390,22 +1382,22 @@
         <v>46204</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-154</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -1414,16 +1406,16 @@
         <v>46207</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
@@ -1436,16 +1428,16 @@
         <v>46214</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>21</v>
@@ -1458,22 +1450,22 @@
         <v>46218</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-218</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -1482,22 +1474,22 @@
         <v>46218</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-545</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -1506,22 +1498,22 @@
         <v>46218</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-31</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -1530,22 +1522,22 @@
         <v>46218</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-14</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -1554,22 +1546,22 @@
         <v>46218</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-120</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -1578,22 +1570,22 @@
         <v>46218</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-20</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -1602,16 +1594,16 @@
         <v>46221</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>21</v>
@@ -1624,16 +1616,16 @@
         <v>46228</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>21</v>
@@ -1646,22 +1638,22 @@
         <v>46229</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -1670,22 +1662,22 @@
         <v>46230</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -1694,22 +1686,23 @@
         <v>46234</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="D19" s="15" t="n">
-        <v>-62</v>
+        <f aca="false">-(0)</f>
+        <v>-0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -1725,7 +1718,7 @@
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -1737,7 +1730,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1749,7 +1742,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -1761,7 +1754,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1773,7 +1766,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -2204,7 +2197,6 @@
       <c r="H67" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false"/>
   <autoFilter ref="A3:H144"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -2259,7 +2251,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2269,7 +2261,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -2277,7 +2269,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2287,52 +2279,47 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-281.75</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-281.75</v>
+        <v>-219.75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">'07-Jul'!$K$3+$K$2</f>
-        <v>1840.96</v>
+        <v>2326.96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2340,22 +2327,22 @@
         <v>46235</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>-742</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -2364,22 +2351,22 @@
         <v>46235</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>-38</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -2388,16 +2375,16 @@
         <v>46235</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
@@ -2410,16 +2397,16 @@
         <v>46242</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
@@ -2432,22 +2419,22 @@
         <v>46249</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-218</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="18"/>
     </row>
@@ -2456,22 +2443,22 @@
         <v>46249</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-545</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -2480,22 +2467,22 @@
         <v>46249</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-31</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -2504,22 +2491,22 @@
         <v>46249</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-14</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -2528,22 +2515,22 @@
         <v>46249</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-120</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -2552,22 +2539,22 @@
         <v>46249</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-20</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -2576,16 +2563,16 @@
         <v>46249</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
@@ -2598,16 +2585,16 @@
         <v>46256</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>21</v>
@@ -2620,10 +2607,10 @@
         <v>46260</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-125.56</v>
@@ -2633,7 +2620,7 @@
         <v>19</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -2642,22 +2629,22 @@
         <v>46261</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -2666,16 +2653,16 @@
         <v>46263</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>21</v>
@@ -2688,22 +2675,22 @@
         <v>46265</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>-236.19</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -2712,22 +2699,23 @@
         <v>46265</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="D20" s="15" t="n">
-        <v>-62</v>
+        <f aca="false">-(0)</f>
+        <v>-0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -2743,7 +2731,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -2755,7 +2743,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -2767,7 +2755,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -2779,7 +2767,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -2791,7 +2779,7 @@
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -3222,7 +3210,6 @@
       <c r="H68" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false"/>
   <autoFilter ref="A3:H144"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -3277,7 +3264,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3287,7 +3274,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -3295,7 +3282,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3305,52 +3292,47 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-367.56</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-367.56</v>
+        <v>-307.56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">'08-Aug'!$K$3+$K$2</f>
-        <v>1473.4</v>
+        <v>2019.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3358,22 +3340,22 @@
         <v>46266</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>-742</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -3382,22 +3364,22 @@
         <v>46266</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>-38</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -3406,22 +3388,22 @@
         <v>46266</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-154</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -3430,16 +3412,16 @@
         <v>46270</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
@@ -3452,16 +3434,16 @@
         <v>46277</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>21</v>
@@ -3474,22 +3456,22 @@
         <v>46280</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-218</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -3498,22 +3480,22 @@
         <v>46280</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-545</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -3522,22 +3504,22 @@
         <v>46280</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-31</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -3546,22 +3528,22 @@
         <v>46280</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-14</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -3570,22 +3552,22 @@
         <v>46280</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-120</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -3594,22 +3576,22 @@
         <v>46280</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-20</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -3618,16 +3600,16 @@
         <v>46284</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>21</v>
@@ -3640,22 +3622,22 @@
         <v>46291</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -3664,16 +3646,16 @@
         <v>46291</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>21</v>
@@ -3686,22 +3668,22 @@
         <v>46292</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -3710,22 +3692,23 @@
         <v>46295</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="D19" s="15" t="n">
-        <v>-60</v>
+        <f aca="false">-(0)</f>
+        <v>-0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -3741,7 +3724,7 @@
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -3753,7 +3736,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -3765,7 +3748,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -3777,7 +3760,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -3789,7 +3772,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -4220,7 +4203,6 @@
       <c r="H67" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false"/>
   <autoFilter ref="A3:H144"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -4275,7 +4257,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4285,7 +4267,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -4293,7 +4275,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4303,52 +4285,47 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-45.56</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-45.56</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">'09-Sep'!$K$3+$K$2</f>
-        <v>1427.84</v>
+        <v>2035.84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4356,22 +4333,22 @@
         <v>46296</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>-742</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -4380,22 +4357,22 @@
         <v>46296</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>-38</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -4404,16 +4381,16 @@
         <v>46298</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
@@ -4426,16 +4403,16 @@
         <v>46305</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
@@ -4448,22 +4425,22 @@
         <v>46310</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-218</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="18"/>
     </row>
@@ -4472,22 +4449,22 @@
         <v>46310</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-545</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -4496,22 +4473,22 @@
         <v>46310</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-31</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -4520,22 +4497,22 @@
         <v>46310</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-14</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -4544,22 +4521,22 @@
         <v>46310</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-120</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -4568,22 +4545,22 @@
         <v>46310</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-20</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -4592,16 +4569,16 @@
         <v>46312</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
@@ -4614,16 +4591,16 @@
         <v>46319</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>21</v>
@@ -4636,22 +4613,22 @@
         <v>46321</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -4660,22 +4637,22 @@
         <v>46322</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="G17" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -4684,16 +4661,16 @@
         <v>46326</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>21</v>
@@ -4706,22 +4683,23 @@
         <v>46326</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="D19" s="15" t="n">
-        <v>-62</v>
+        <f aca="false">-(0)</f>
+        <v>-0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -4737,7 +4715,7 @@
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -4749,7 +4727,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -4761,7 +4739,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -4773,7 +4751,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -4785,7 +4763,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -5226,7 +5204,6 @@
       <c r="H68" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false"/>
   <autoFilter ref="A3:H144"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -5281,7 +5258,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5291,7 +5268,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -5299,7 +5276,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5309,52 +5286,47 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-603.75</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-603.75</v>
+        <v>-543.75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">'10-Oct'!$K$3+$K$2</f>
-        <v>824.09</v>
+        <v>1492.09</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5362,22 +5334,22 @@
         <v>46327</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>-742</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -5386,22 +5358,22 @@
         <v>46327</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>-38</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -5410,22 +5382,22 @@
         <v>46327</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-154</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -5434,16 +5406,16 @@
         <v>46333</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
@@ -5456,16 +5428,16 @@
         <v>46340</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>21</v>
@@ -5478,22 +5450,22 @@
         <v>46341</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-218</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -5502,22 +5474,22 @@
         <v>46341</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-545</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -5526,22 +5498,22 @@
         <v>46341</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-31</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -5550,22 +5522,22 @@
         <v>46341</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-14</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -5574,22 +5546,22 @@
         <v>46341</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-120</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -5598,22 +5570,22 @@
         <v>46341</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-20</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -5622,16 +5594,16 @@
         <v>46347</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>21</v>
@@ -5644,22 +5616,22 @@
         <v>46352</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -5668,22 +5640,22 @@
         <v>46353</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="G17" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -5692,16 +5664,16 @@
         <v>46354</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>21</v>
@@ -5714,22 +5686,22 @@
         <v>46356</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>-236.19</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -5738,22 +5710,23 @@
         <v>46356</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="D20" s="15" t="n">
-        <v>-60</v>
+        <f aca="false">-(0)</f>
+        <v>-0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -5769,7 +5742,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -5781,7 +5754,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -5793,7 +5766,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -5805,7 +5778,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -5817,7 +5790,7 @@
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -6238,7 +6211,6 @@
       <c r="H67" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false"/>
   <autoFilter ref="A3:H144"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -6293,7 +6265,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6303,7 +6275,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -6311,7 +6283,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6321,52 +6293,47 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>2164.44</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>2164.44</v>
+        <v>2226.44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">'11-Nov'!$K$3+$K$2</f>
-        <v>2988.53</v>
+        <v>3718.53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6374,22 +6341,22 @@
         <v>46357</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>-742</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -6398,22 +6365,22 @@
         <v>46357</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>-38</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -6422,16 +6389,16 @@
         <v>46361</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
@@ -6444,16 +6411,16 @@
         <v>46368</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
@@ -6466,22 +6433,22 @@
         <v>46371</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-218</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="18"/>
     </row>
@@ -6490,22 +6457,22 @@
         <v>46371</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-545</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -6514,22 +6481,22 @@
         <v>46371</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-31</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -6538,22 +6505,22 @@
         <v>46371</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-14</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -6562,22 +6529,22 @@
         <v>46371</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-120</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -6586,22 +6553,22 @@
         <v>46371</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-20</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -6610,16 +6577,16 @@
         <v>46375</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
@@ -6632,22 +6599,22 @@
         <v>46382</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -6656,16 +6623,16 @@
         <v>46382</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>21</v>
@@ -6678,22 +6645,22 @@
         <v>46383</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="G17" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -6702,20 +6669,20 @@
         <v>46383</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="15" t="n">
         <f aca="false">SUMIFS($D:$D,$A:$A,DATE(2026,12,27),$C:$C,"Stipendio netto")</f>
         <v>2380</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
@@ -6725,22 +6692,23 @@
         <v>46387</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="D19" s="15" t="n">
-        <v>-62</v>
+        <f aca="false">-(0)</f>
+        <v>-0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -6756,7 +6724,7 @@
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -6768,7 +6736,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -6780,7 +6748,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -6792,7 +6760,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -6804,7 +6772,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -7235,7 +7203,6 @@
       <c r="H67" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false"/>
   <autoFilter ref="A3:H144"/>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
@@ -7514,10 +7481,10 @@
   </sheetPr>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7527,7 +7494,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -7545,52 +7512,47 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>260.45</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>260.45</v>
+        <v>322.45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">$K$2</f>
-        <v>260.45</v>
+        <v>322.45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7598,22 +7560,22 @@
         <v>46023</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>-742</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -7622,22 +7584,22 @@
         <v>46023</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>-38</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -7646,22 +7608,22 @@
         <v>46023</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-154</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -7670,22 +7632,22 @@
         <v>46024</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-49.99</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="18"/>
     </row>
@@ -7694,16 +7656,16 @@
         <v>46025</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>21</v>
@@ -7716,16 +7678,16 @@
         <v>46032</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>21</v>
@@ -7738,22 +7700,22 @@
         <v>46037</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-218</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -7762,22 +7724,22 @@
         <v>46037</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-545</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -7786,22 +7748,22 @@
         <v>46037</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-31</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -7810,22 +7772,22 @@
         <v>46037</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-14</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -7834,22 +7796,22 @@
         <v>46037</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-120</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -7858,22 +7820,22 @@
         <v>46037</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-20</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -7882,16 +7844,16 @@
         <v>46039</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>21</v>
@@ -7904,16 +7866,16 @@
         <v>46046</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>21</v>
@@ -7926,22 +7888,22 @@
         <v>46048</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -7950,22 +7912,22 @@
         <v>46049</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -7974,16 +7936,16 @@
         <v>46053</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>21</v>
@@ -7996,23 +7958,22 @@
         <v>46053</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="D21" s="15" t="n">
-        <v>-62</v>
+        <f aca="false">-(0)</f>
+        <v>-0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>101</v>
-      </c>
+      <c r="G21" s="17"/>
       <c r="H21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8027,7 +7988,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -8039,7 +8000,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -8051,7 +8012,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -8063,7 +8024,7 @@
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -8075,7 +8036,7 @@
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -8496,7 +8457,6 @@
       <c r="H68" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false"/>
   <autoFilter ref="A3:H144"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -8551,7 +8511,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8561,7 +8521,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -8569,7 +8529,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -8579,52 +8539,47 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>64.25</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>64.25</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">'01-Jan'!$K$3+$K$2</f>
-        <v>324.7</v>
+        <v>442.7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8632,22 +8587,22 @@
         <v>46054</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>-742</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -8656,22 +8611,22 @@
         <v>46054</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>-38</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -8680,16 +8635,16 @@
         <v>46060</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
@@ -8702,16 +8657,16 @@
         <v>46067</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
@@ -8724,22 +8679,22 @@
         <v>46068</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-218</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="18"/>
     </row>
@@ -8748,22 +8703,22 @@
         <v>46068</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-545</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -8772,22 +8727,22 @@
         <v>46068</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-31</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -8796,22 +8751,22 @@
         <v>46068</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-14</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -8820,22 +8775,22 @@
         <v>46068</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-120</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -8844,22 +8799,22 @@
         <v>46068</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-20</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -8868,16 +8823,16 @@
         <v>46074</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
@@ -8890,22 +8845,22 @@
         <v>46079</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -8914,22 +8869,22 @@
         <v>46080</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="G16" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -8938,22 +8893,22 @@
         <v>46081</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-236.19</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -8962,16 +8917,16 @@
         <v>46081</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>21</v>
@@ -8984,22 +8939,23 @@
         <v>46081</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="D19" s="15" t="n">
-        <v>-56</v>
+        <f aca="false">-(0)</f>
+        <v>-0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -9015,7 +8971,7 @@
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -9027,7 +8983,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -9039,7 +8995,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -9051,7 +9007,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -9063,7 +9019,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -9494,7 +9450,6 @@
       <c r="H67" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false"/>
   <autoFilter ref="A3:H144"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -9546,10 +9501,10 @@
   </sheetPr>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9559,7 +9514,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -9567,7 +9522,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -9577,52 +9532,47 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-199.56</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-199.56</v>
+        <v>-137.56</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">'02-Feb'!$K$3+$K$2</f>
-        <v>125.14</v>
+        <v>305.14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9630,22 +9580,22 @@
         <v>46082</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>-742</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -9654,22 +9604,22 @@
         <v>46082</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>-38</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -9678,22 +9628,22 @@
         <v>46082</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-154</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -9702,16 +9652,16 @@
         <v>46088</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
@@ -9724,16 +9674,16 @@
         <v>46095</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>21</v>
@@ -9746,22 +9696,22 @@
         <v>46096</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-218</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -9770,22 +9720,22 @@
         <v>46096</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-545</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -9794,22 +9744,22 @@
         <v>46096</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-31</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -9818,22 +9768,22 @@
         <v>46096</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-14</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -9842,22 +9792,22 @@
         <v>46096</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-120</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -9866,22 +9816,22 @@
         <v>46096</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-20</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -9890,16 +9840,16 @@
         <v>46102</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>21</v>
@@ -9912,22 +9862,22 @@
         <v>46107</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -9936,22 +9886,22 @@
         <v>46108</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="G17" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -9960,16 +9910,16 @@
         <v>46109</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>21</v>
@@ -9982,22 +9932,23 @@
         <v>46112</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="D19" s="15" t="n">
-        <v>-62</v>
+        <f aca="false">-(0)</f>
+        <v>-0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -10013,7 +9964,7 @@
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -10025,7 +9976,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -10037,7 +9988,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -10049,7 +10000,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -10061,7 +10012,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -10492,7 +10443,6 @@
       <c r="H67" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false"/>
   <autoFilter ref="A3:H144"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -10547,7 +10497,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10557,7 +10507,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -10565,7 +10515,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10575,52 +10525,47 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>126.44</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>126.44</v>
+        <v>186.44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">'03-Mar'!$K$3+$K$2</f>
-        <v>251.58</v>
+        <v>491.58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10628,22 +10573,22 @@
         <v>46113</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>-742</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -10652,22 +10597,22 @@
         <v>46113</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>-38</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -10676,16 +10621,16 @@
         <v>46116</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
@@ -10698,16 +10643,16 @@
         <v>46123</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
@@ -10720,22 +10665,22 @@
         <v>46127</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-218</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="18"/>
     </row>
@@ -10744,22 +10689,22 @@
         <v>46127</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-545</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -10768,22 +10713,22 @@
         <v>46127</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-31</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -10792,22 +10737,22 @@
         <v>46127</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-14</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -10816,22 +10761,22 @@
         <v>46127</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-120</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -10840,22 +10785,22 @@
         <v>46127</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-20</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -10864,16 +10809,16 @@
         <v>46130</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
@@ -10886,16 +10831,16 @@
         <v>46137</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>21</v>
@@ -10908,22 +10853,22 @@
         <v>46138</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -10932,22 +10877,22 @@
         <v>46139</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="G17" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -10956,22 +10901,23 @@
         <v>46142</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="D18" s="15" t="n">
-        <v>-60</v>
+        <f aca="false">-(0)</f>
+        <v>-0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -10987,7 +10933,7 @@
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -10999,7 +10945,7 @@
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -11011,7 +10957,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -11023,7 +10969,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -11035,7 +10981,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -11476,7 +11422,6 @@
       <c r="H67" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false"/>
   <autoFilter ref="A3:H144"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -11531,7 +11476,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11541,7 +11486,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -11549,7 +11494,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -11559,52 +11504,47 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-95.75</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-95.75</v>
+        <v>-33.75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">'04-Apr'!$K$3+$K$2</f>
-        <v>155.83</v>
+        <v>457.83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11612,22 +11552,22 @@
         <v>46143</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>-742</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -11636,22 +11576,22 @@
         <v>46143</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>-38</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -11660,22 +11600,22 @@
         <v>46143</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-154</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -11684,16 +11624,16 @@
         <v>46144</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
@@ -11706,16 +11646,16 @@
         <v>46151</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>21</v>
@@ -11728,22 +11668,22 @@
         <v>46157</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-218</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -11752,22 +11692,22 @@
         <v>46157</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-545</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -11776,22 +11716,22 @@
         <v>46157</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-31</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -11800,22 +11740,22 @@
         <v>46157</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-14</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -11824,22 +11764,22 @@
         <v>46157</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-120</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -11848,22 +11788,22 @@
         <v>46157</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-20</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -11872,16 +11812,16 @@
         <v>46158</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>21</v>
@@ -11894,16 +11834,16 @@
         <v>46165</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>21</v>
@@ -11916,22 +11856,22 @@
         <v>46168</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -11940,22 +11880,22 @@
         <v>46169</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -11964,16 +11904,16 @@
         <v>46172</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>21</v>
@@ -11986,22 +11926,22 @@
         <v>46173</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>-236.19</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -12010,22 +11950,23 @@
         <v>46173</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="D21" s="15" t="n">
-        <v>-62</v>
+        <f aca="false">-(0)</f>
+        <v>-0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -12041,7 +11982,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -12053,7 +11994,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -12065,7 +12006,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -12077,7 +12018,7 @@
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -12089,7 +12030,7 @@
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -12510,7 +12451,6 @@
       <c r="H68" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false"/>
   <autoFilter ref="A3:H144"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
@@ -12565,7 +12505,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12575,7 +12515,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -12583,7 +12523,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -12593,52 +12533,47 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>2336.44</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="K2" s="5" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>2336.44</v>
+        <v>2396.44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K3" s="5" t="n">
         <f aca="false">'05-May'!$K$3+$K$2</f>
-        <v>2492.27</v>
+        <v>2854.27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12646,22 +12581,22 @@
         <v>46174</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="15" t="n">
         <v>-742</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18"/>
     </row>
@@ -12670,22 +12605,22 @@
         <v>46174</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="D5" s="15" t="n">
         <v>-38</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="18"/>
     </row>
@@ -12694,16 +12629,16 @@
         <v>46179</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>21</v>
@@ -12716,16 +12651,16 @@
         <v>46186</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>21</v>
@@ -12738,22 +12673,22 @@
         <v>46188</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-218</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="18"/>
     </row>
@@ -12762,22 +12697,22 @@
         <v>46188</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-545</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="18"/>
     </row>
@@ -12786,22 +12721,22 @@
         <v>46188</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-31</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -12810,22 +12745,22 @@
         <v>46188</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-14</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -12834,22 +12769,22 @@
         <v>46188</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-120</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -12858,22 +12793,22 @@
         <v>46188</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-20</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -12882,16 +12817,16 @@
         <v>46193</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>21</v>
@@ -12904,22 +12839,22 @@
         <v>46199</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -12928,22 +12863,22 @@
         <v>46200</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="G16" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -12952,23 +12887,23 @@
         <v>46200</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D17" s="15" t="n">
         <f aca="false">SUMIFS($D:$D,$A:$A,DATE(2026,6,27),$C:$C,"Stipendio netto")</f>
         <v>2380</v>
       </c>
       <c r="E17" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="G17" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -12977,16 +12912,16 @@
         <v>46200</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>21</v>
@@ -12999,22 +12934,23 @@
         <v>46203</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>100</v>
-      </c>
       <c r="D19" s="15" t="n">
-        <v>-60</v>
+        <f aca="false">-(0)</f>
+        <v>-0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -13030,7 +12966,7 @@
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -13042,7 +12978,7 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -13054,7 +12990,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -13066,7 +13002,7 @@
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -13078,7 +13014,7 @@
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -13509,7 +13445,6 @@
       <c r="H67" s="18"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" formatCells="false"/>
   <autoFilter ref="A3:H144"/>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>

--- a/02-Schede/Calendario_Finanziario_Annuale_2026_v22.xlsx
+++ b/02-Schede/Calendario_Finanziario_Annuale_2026_v22.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="121">
   <si>
     <t xml:space="preserve">Calendario finanziario mensile</t>
   </si>
@@ -138,6 +138,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SDD / Accredito / Bancomat / CC moglie / Contanti / Buoni pasto / Gift card / Altro</t>
     </r>
@@ -302,6 +303,15 @@
     <t xml:space="preserve">CC moglie</t>
   </si>
   <si>
+    <t xml:space="preserve">Utenza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorgenia elettricità</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorgenia gas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abbonamento Disney+ mensile</t>
   </si>
   <si>
@@ -320,9 +330,6 @@
     <t xml:space="preserve">Picco del 15.</t>
   </si>
   <si>
-    <t xml:space="preserve">Utenza</t>
-  </si>
-  <si>
     <t xml:space="preserve">WindTre fibra casa</t>
   </si>
   <si>
@@ -330,15 +337,6 @@
   </si>
   <si>
     <t xml:space="preserve">WindTre figli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorgenia elettricità (stima)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggiorna quando arriva la bolletta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorgenia gas (stima)</t>
   </si>
   <si>
     <t xml:space="preserve">Auto</t>
@@ -375,6 +373,15 @@
   </si>
   <si>
     <t xml:space="preserve">FEBRUARY 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorgenia elettricità (stima)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggiorna quando arriva la bolletta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorgenia gas (stima)</t>
   </si>
   <si>
     <t xml:space="preserve">Fisco</t>
@@ -437,7 +444,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -479,12 +486,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -677,7 +678,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1053,8 +1054,8 @@
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="74.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="126.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="126.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,9 +1192,6 @@
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1"/>
-    </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>26</v>
@@ -1202,9 +1200,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1"/>
-    </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
         <v>28</v>
@@ -1213,9 +1208,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1"/>
-    </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
         <v>30</v>
@@ -1223,9 +1215,6 @@
       <c r="B36" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
@@ -1274,7 +1263,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1324,7 +1313,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'06-Jun'!$K$3+$K$2</f>
-        <v>3298.85</v>
+        <v>3285.57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1429,7 +1418,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -1451,7 +1440,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
@@ -1495,7 +1484,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-218</v>
@@ -1507,7 +1496,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -1519,7 +1508,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-545</v>
@@ -1531,7 +1520,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -1540,10 +1529,10 @@
         <v>46218</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-31</v>
@@ -1555,7 +1544,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -1564,10 +1553,10 @@
         <v>46218</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-14</v>
@@ -1579,7 +1568,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -1588,10 +1577,10 @@
         <v>46218</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-120</v>
@@ -1603,7 +1592,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -1612,10 +1601,10 @@
         <v>46218</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-20</v>
@@ -1627,7 +1616,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -1680,10 +1669,10 @@
         <v>46229</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>-125.56</v>
@@ -1695,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -1704,22 +1693,22 @@
         <v>46230</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -1728,10 +1717,10 @@
         <v>46234</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -1744,7 +1733,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -1760,7 +1749,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2267,7 +2256,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2317,7 +2306,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'08-Aug'!$K$3+$K$2</f>
-        <v>2743.58</v>
+        <v>2730.3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2422,7 +2411,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -2444,7 +2433,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
@@ -2488,7 +2477,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-218</v>
@@ -2500,7 +2489,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -2512,7 +2501,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-545</v>
@@ -2524,7 +2513,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -2533,10 +2522,10 @@
         <v>46280</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-31</v>
@@ -2548,7 +2537,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -2557,10 +2546,10 @@
         <v>46280</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-14</v>
@@ -2572,7 +2561,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -2581,10 +2570,10 @@
         <v>46280</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-120</v>
@@ -2596,7 +2585,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -2605,10 +2594,10 @@
         <v>46280</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-20</v>
@@ -2620,7 +2609,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -2651,10 +2640,10 @@
         <v>46291</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
@@ -2666,7 +2655,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -2697,22 +2686,22 @@
         <v>46292</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -2721,10 +2710,10 @@
         <v>46295</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -2737,7 +2726,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -3258,7 +3247,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3308,7 +3297,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'09-Sep'!$K$3+$K$2</f>
-        <v>2746.04</v>
+        <v>2732.76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3373,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
@@ -3389,7 +3378,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-6.99</v>
@@ -3411,7 +3400,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -3455,7 +3444,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-218</v>
@@ -3467,7 +3456,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -3479,7 +3468,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-545</v>
@@ -3491,7 +3480,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -3500,10 +3489,10 @@
         <v>46310</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-31</v>
@@ -3515,7 +3504,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -3524,10 +3513,10 @@
         <v>46310</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-14</v>
@@ -3539,7 +3528,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -3548,10 +3537,10 @@
         <v>46310</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-120</v>
@@ -3563,7 +3552,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -3572,10 +3561,10 @@
         <v>46310</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-20</v>
@@ -3587,7 +3576,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -3640,10 +3629,10 @@
         <v>46321</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
@@ -3655,7 +3644,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -3664,22 +3653,22 @@
         <v>46322</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -3697,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -3710,10 +3699,10 @@
         <v>46326</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -3726,7 +3715,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -4257,7 +4246,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4307,7 +4296,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'10-Oct'!$K$3+$K$2</f>
-        <v>2188.31</v>
+        <v>2175.03</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4412,7 +4401,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -4434,7 +4423,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
@@ -4478,7 +4467,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-218</v>
@@ -4490,7 +4479,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -4502,7 +4491,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-545</v>
@@ -4514,7 +4503,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -4523,10 +4512,10 @@
         <v>46341</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-31</v>
@@ -4538,7 +4527,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -4547,10 +4536,10 @@
         <v>46341</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-14</v>
@@ -4562,7 +4551,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -4571,10 +4560,10 @@
         <v>46341</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-120</v>
@@ -4586,7 +4575,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -4595,10 +4584,10 @@
         <v>46341</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-20</v>
@@ -4610,7 +4599,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -4641,10 +4630,10 @@
         <v>46352</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
@@ -4656,7 +4645,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -4665,22 +4654,22 @@
         <v>46353</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -4698,7 +4687,7 @@
         <v>-170</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -4711,10 +4700,10 @@
         <v>46356</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>-236.19</v>
@@ -4726,7 +4715,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -4735,10 +4724,10 @@
         <v>46356</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D22" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -4751,7 +4740,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H22" s="18"/>
     </row>
@@ -5262,7 +5251,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5312,7 +5301,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'11-Nov'!$K$3+$K$2</f>
-        <v>4400.77</v>
+        <v>4387.49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5393,7 +5382,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-6.99</v>
@@ -5415,7 +5404,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -5459,7 +5448,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-218</v>
@@ -5471,7 +5460,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -5483,7 +5472,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-545</v>
@@ -5495,7 +5484,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -5504,10 +5493,10 @@
         <v>46371</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-31</v>
@@ -5519,7 +5508,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -5528,10 +5517,10 @@
         <v>46371</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-14</v>
@@ -5543,7 +5532,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -5552,10 +5541,10 @@
         <v>46371</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-120</v>
@@ -5567,7 +5556,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -5576,10 +5565,10 @@
         <v>46371</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-20</v>
@@ -5591,7 +5580,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -5622,10 +5611,10 @@
         <v>46382</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-125.56</v>
@@ -5637,7 +5626,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -5668,22 +5657,22 @@
         <v>46383</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -5692,20 +5681,20 @@
         <v>46383</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D20" s="15" t="n">
         <f aca="false">SUMIFS($D:$D,$A:$A,DATE(2026,12,27),$C:$C,"Stipendio netto")</f>
         <v>2380</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
@@ -5715,10 +5704,10 @@
         <v>46387</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -5731,7 +5720,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -6234,7 +6223,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6261,7 +6250,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="n">
-        <v>550</v>
+        <v>534.94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6270,11 +6259,11 @@
       </c>
       <c r="B3" s="8" t="n">
         <f aca="false">'01-Jan'!$K$2</f>
-        <v>308.47</v>
+        <v>295.19</v>
       </c>
       <c r="C3" s="8" t="n">
         <f aca="false">C2+B3</f>
-        <v>858.47</v>
+        <v>830.13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6287,7 +6276,7 @@
       </c>
       <c r="C4" s="8" t="n">
         <f aca="false">C3+B4</f>
-        <v>1134.74</v>
+        <v>1106.4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6300,7 +6289,7 @@
       </c>
       <c r="C5" s="8" t="n">
         <f aca="false">C4+B5</f>
-        <v>1493.2</v>
+        <v>1464.86</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6313,7 +6302,7 @@
       </c>
       <c r="C6" s="8" t="n">
         <f aca="false">C5+B6</f>
-        <v>1665.66</v>
+        <v>1637.32</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6326,7 +6315,7 @@
       </c>
       <c r="C7" s="8" t="n">
         <f aca="false">C6+B7</f>
-        <v>1787.93</v>
+        <v>1759.59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6339,7 +6328,7 @@
       </c>
       <c r="C8" s="8" t="n">
         <f aca="false">C7+B8</f>
-        <v>4170.39</v>
+        <v>4142.05</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6352,7 +6341,7 @@
       </c>
       <c r="C9" s="8" t="n">
         <f aca="false">C8+B9</f>
-        <v>3848.85</v>
+        <v>3820.51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6365,7 +6354,7 @@
       </c>
       <c r="C10" s="8" t="n">
         <f aca="false">C9+B10</f>
-        <v>3615.12</v>
+        <v>3586.78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6378,7 +6367,7 @@
       </c>
       <c r="C11" s="8" t="n">
         <f aca="false">C10+B11</f>
-        <v>3293.58</v>
+        <v>3265.24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6391,7 +6380,7 @@
       </c>
       <c r="C12" s="8" t="n">
         <f aca="false">C11+B12</f>
-        <v>3296.04</v>
+        <v>3267.7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,7 +6393,7 @@
       </c>
       <c r="C13" s="8" t="n">
         <f aca="false">C12+B13</f>
-        <v>2738.31</v>
+        <v>2709.97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,7 +6406,7 @@
       </c>
       <c r="C14" s="8" t="n">
         <f aca="false">C13+B14</f>
-        <v>4950.77</v>
+        <v>4922.43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6426,11 +6415,11 @@
       </c>
       <c r="B15" s="9" t="n">
         <f aca="false">SUM(B3:B14)</f>
-        <v>4400.77</v>
+        <v>4387.49</v>
       </c>
       <c r="C15" s="9" t="n">
         <f aca="false">C14</f>
-        <v>4950.77</v>
+        <v>4922.43</v>
       </c>
     </row>
   </sheetData>
@@ -6454,7 +6443,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6489,7 +6478,7 @@
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>308.47</v>
+        <v>295.19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6522,7 +6511,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">$K$2</f>
-        <v>308.47</v>
+        <v>295.19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6645,116 +6634,112 @@
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
-        <v>46031</v>
+        <v>46027</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-6.99</v>
+        <v>-123.71</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
-        <v>46032</v>
+        <v>46027</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-6.99</v>
+        <v>-29.57</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
-        <v>46032</v>
+        <v>46031</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
-        <v>46037</v>
+        <v>46032</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>-218</v>
+        <v>-6.99</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>80</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
-        <v>46037</v>
+        <v>46032</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>-545</v>
+        <v>0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>82</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" s="17"/>
       <c r="H13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6762,22 +6747,22 @@
         <v>46037</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-31</v>
+        <v>-218</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -6786,19 +6771,19 @@
         <v>46037</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>-14</v>
+        <v>-545</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>85</v>
@@ -6810,13 +6795,13 @@
         <v>46037</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>-120</v>
+        <v>-31</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>62</v>
@@ -6825,7 +6810,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -6834,13 +6819,13 @@
         <v>46037</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>62</v>
@@ -6849,7 +6834,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -6902,10 +6887,10 @@
         <v>46048</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>-125.56</v>
@@ -6917,7 +6902,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -6926,22 +6911,22 @@
         <v>46049</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="G21" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -6959,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>18</v>
@@ -6972,10 +6957,10 @@
         <v>46053</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D23" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -7479,7 +7464,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7497,7 +7482,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7547,7 +7532,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'01-Jan'!$K$3+$K$2</f>
-        <v>584.74</v>
+        <v>571.46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7622,116 +7607,116 @@
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
-        <v>46062</v>
+        <v>46068</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-6.99</v>
+        <v>-120</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="H7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
-        <v>46063</v>
+        <v>46068</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-6.99</v>
+        <v>-20</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="H8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
-        <v>46067</v>
+        <v>46062</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
-        <v>46068</v>
+        <v>46063</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-218</v>
+        <v>-6.99</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>80</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
-        <v>46068</v>
+        <v>46067</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>-545</v>
+        <v>0</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>82</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7739,22 +7724,22 @@
         <v>46068</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>-31</v>
+        <v>-218</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -7763,19 +7748,19 @@
         <v>46068</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>-14</v>
+        <v>-545</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>85</v>
@@ -7787,13 +7772,13 @@
         <v>46068</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-120</v>
+        <v>-31</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
@@ -7802,7 +7787,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -7811,13 +7796,13 @@
         <v>46068</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>62</v>
@@ -7826,7 +7811,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -7857,10 +7842,10 @@
         <v>46079</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-125.56</v>
@@ -7872,7 +7857,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -7881,22 +7866,22 @@
         <v>46080</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -7905,10 +7890,10 @@
         <v>46081</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>-236.19</v>
@@ -7920,7 +7905,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -7938,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -7951,10 +7936,10 @@
         <v>46081</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -7967,7 +7952,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -8436,27 +8421,27 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F6 F9:F142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F8 F11:F142" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E6 E9:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E8 E11:E142" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H6 H9:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H8 H11:H142" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F7:F8" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F9:F10" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E7:E8" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E9:E10" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H7:H8" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H9:H10" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8482,7 +8467,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8500,7 +8485,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -8550,7 +8535,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'02-Feb'!$K$3+$K$2</f>
-        <v>943.2</v>
+        <v>929.92</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8627,138 +8612,138 @@
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
-        <v>46088</v>
+        <v>46096</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="H7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
-        <v>46090</v>
+        <v>46096</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-6.99</v>
+        <v>-20</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="H8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
-        <v>46091</v>
+        <v>46088</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-6.99</v>
+        <v>0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
-        <v>46095</v>
+        <v>46090</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
-        <v>46096</v>
+        <v>46091</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>-218</v>
+        <v>-6.99</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>80</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
-        <v>46096</v>
+        <v>46095</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>-545</v>
+        <v>0</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>82</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8766,22 +8751,22 @@
         <v>46096</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>-31</v>
+        <v>-218</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -8790,19 +8775,19 @@
         <v>46096</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-14</v>
+        <v>-545</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>85</v>
@@ -8814,13 +8799,13 @@
         <v>46096</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>-120</v>
+        <v>-31</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>62</v>
@@ -8829,7 +8814,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -8838,13 +8823,13 @@
         <v>46096</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>-20</v>
+        <v>-14</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>62</v>
@@ -8853,7 +8838,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -8884,10 +8869,10 @@
         <v>46107</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
@@ -8899,7 +8884,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -8908,22 +8893,22 @@
         <v>46108</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -8941,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -8954,10 +8939,10 @@
         <v>46112</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -8970,7 +8955,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -9439,27 +9424,27 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F7 F10:F142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F9 F12:F142" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E7 E10:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E9 E12:E142" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H7 H10:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H9 H12:H142" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F8:F9" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F10:F11" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E8:E9" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E10:E11" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H8:H9" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H10:H11" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9503,7 +9488,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -9553,7 +9538,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'03-Mar'!$K$3+$K$2</f>
-        <v>1115.66</v>
+        <v>1102.38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9634,7 +9619,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-6.99</v>
@@ -9656,7 +9641,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -9700,7 +9685,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-218</v>
@@ -9712,7 +9697,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -9724,7 +9709,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-545</v>
@@ -9736,7 +9721,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -9745,10 +9730,10 @@
         <v>46127</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-31</v>
@@ -9760,7 +9745,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -9769,10 +9754,10 @@
         <v>46127</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-14</v>
@@ -9784,7 +9769,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -9793,10 +9778,10 @@
         <v>46127</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-120</v>
@@ -9808,7 +9793,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -9817,10 +9802,10 @@
         <v>46127</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-20</v>
@@ -9832,7 +9817,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -9885,10 +9870,10 @@
         <v>46138</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
@@ -9900,7 +9885,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -9909,22 +9894,22 @@
         <v>46139</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -9933,10 +9918,10 @@
         <v>46142</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D20" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -9949,7 +9934,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -10480,7 +10465,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10530,7 +10515,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'04-Apr'!$K$3+$K$2</f>
-        <v>1237.93</v>
+        <v>1224.65</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10619,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>18</v>
@@ -10657,7 +10642,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
@@ -10679,7 +10664,7 @@
         <v>64</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-6.99</v>
@@ -10701,7 +10686,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-218</v>
@@ -10713,7 +10698,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -10725,7 +10710,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-545</v>
@@ -10737,7 +10722,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -10746,10 +10731,10 @@
         <v>46157</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-31</v>
@@ -10761,7 +10746,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -10770,10 +10755,10 @@
         <v>46157</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-14</v>
@@ -10785,7 +10770,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -10794,10 +10779,10 @@
         <v>46157</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-120</v>
@@ -10809,7 +10794,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -10818,10 +10803,10 @@
         <v>46157</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-20</v>
@@ -10833,7 +10818,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -10886,10 +10871,10 @@
         <v>46168</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>-125.56</v>
@@ -10901,7 +10886,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -10910,22 +10895,22 @@
         <v>46169</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -10943,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>18</v>
@@ -10956,10 +10941,10 @@
         <v>46173</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D22" s="15" t="n">
         <v>-236.19</v>
@@ -10971,7 +10956,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H22" s="18"/>
     </row>
@@ -10980,10 +10965,10 @@
         <v>46173</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D23" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -10996,7 +10981,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H23" s="18"/>
     </row>
@@ -11519,7 +11504,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -11569,7 +11554,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'05-May'!$K$3+$K$2</f>
-        <v>3620.39</v>
+        <v>3607.11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11650,7 +11635,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-6.99</v>
@@ -11672,7 +11657,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -11716,7 +11701,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-218</v>
@@ -11728,7 +11713,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -11740,7 +11725,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-545</v>
@@ -11752,7 +11737,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -11761,10 +11746,10 @@
         <v>46188</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-31</v>
@@ -11776,7 +11761,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -11785,10 +11770,10 @@
         <v>46188</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-14</v>
@@ -11800,7 +11785,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -11809,10 +11794,10 @@
         <v>46188</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-120</v>
@@ -11824,7 +11809,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -11833,10 +11818,10 @@
         <v>46188</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-20</v>
@@ -11848,7 +11833,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -11879,10 +11864,10 @@
         <v>46199</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-125.56</v>
@@ -11894,7 +11879,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -11903,22 +11888,22 @@
         <v>46200</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E18" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G18" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -11927,23 +11912,23 @@
         <v>46200</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D19" s="15" t="n">
         <f aca="false">SUMIFS($D:$D,$A:$A,DATE(2026,6,27),$C:$C,"Stipendio netto")</f>
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -11961,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -11974,10 +11959,10 @@
         <v>46203</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -11990,7 +11975,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -12511,7 +12496,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -12561,7 +12546,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'07-Jul'!$K$3+$K$2</f>
-        <v>3065.12</v>
+        <v>3051.84</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12626,7 +12611,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
@@ -12664,7 +12649,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -12686,7 +12671,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
@@ -12708,7 +12693,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-218</v>
@@ -12720,7 +12705,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -12732,7 +12717,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-545</v>
@@ -12744,7 +12729,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -12753,10 +12738,10 @@
         <v>46249</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-31</v>
@@ -12768,7 +12753,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -12777,10 +12762,10 @@
         <v>46249</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-14</v>
@@ -12792,7 +12777,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -12801,10 +12786,10 @@
         <v>46249</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-120</v>
@@ -12816,7 +12801,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -12825,10 +12810,10 @@
         <v>46249</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-20</v>
@@ -12840,7 +12825,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -12893,10 +12878,10 @@
         <v>46260</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
@@ -12906,7 +12891,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -12915,22 +12900,22 @@
         <v>46261</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -12948,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -12961,10 +12946,10 @@
         <v>46265</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>-236.19</v>
@@ -12976,7 +12961,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -12985,10 +12970,10 @@
         <v>46265</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D22" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -13001,7 +12986,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H22" s="18"/>
     </row>

--- a/02-Schede/Calendario_Finanziario_Annuale_2026_v22.xlsx
+++ b/02-Schede/Calendario_Finanziario_Annuale_2026_v22.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="122">
   <si>
     <t xml:space="preserve">Calendario finanziario mensile</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spostata al 1°.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sì</t>
   </si>
   <si>
     <t xml:space="preserve">Casa</t>
@@ -1263,7 +1266,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1369,10 +1372,10 @@
         <v>46204</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-154</v>
@@ -1384,7 +1387,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -1393,16 +1396,16 @@
         <v>46207</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>18</v>
@@ -1418,13 +1421,13 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>20</v>
@@ -1440,13 +1443,13 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>20</v>
@@ -1459,16 +1462,16 @@
         <v>46214</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>18</v>
@@ -1484,7 +1487,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-218</v>
@@ -1496,7 +1499,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -1508,7 +1511,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-545</v>
@@ -1520,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -1529,10 +1532,10 @@
         <v>46218</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-31</v>
@@ -1544,7 +1547,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -1553,10 +1556,10 @@
         <v>46218</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-14</v>
@@ -1568,7 +1571,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -1577,10 +1580,10 @@
         <v>46218</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-120</v>
@@ -1592,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -1601,10 +1604,10 @@
         <v>46218</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-20</v>
@@ -1616,7 +1619,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -1625,16 +1628,16 @@
         <v>46221</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
@@ -1647,16 +1650,16 @@
         <v>46228</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>18</v>
@@ -1669,22 +1672,22 @@
         <v>46229</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -1693,22 +1696,22 @@
         <v>46230</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -1717,23 +1720,23 @@
         <v>46234</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -1749,7 +1752,7 @@
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -2256,7 +2259,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2362,10 +2365,10 @@
         <v>46266</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-154</v>
@@ -2377,7 +2380,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -2386,16 +2389,16 @@
         <v>46270</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>18</v>
@@ -2411,13 +2414,13 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>20</v>
@@ -2433,13 +2436,13 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>20</v>
@@ -2452,16 +2455,16 @@
         <v>46277</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>18</v>
@@ -2477,7 +2480,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-218</v>
@@ -2489,7 +2492,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -2501,7 +2504,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-545</v>
@@ -2513,7 +2516,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -2522,10 +2525,10 @@
         <v>46280</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-31</v>
@@ -2537,7 +2540,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -2546,10 +2549,10 @@
         <v>46280</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-14</v>
@@ -2561,7 +2564,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -2570,10 +2573,10 @@
         <v>46280</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-120</v>
@@ -2585,7 +2588,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -2594,10 +2597,10 @@
         <v>46280</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-20</v>
@@ -2609,7 +2612,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -2618,16 +2621,16 @@
         <v>46284</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
@@ -2640,22 +2643,22 @@
         <v>46291</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -2664,16 +2667,16 @@
         <v>46291</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>18</v>
@@ -2686,22 +2689,22 @@
         <v>46292</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -2710,23 +2713,23 @@
         <v>46295</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -3247,7 +3250,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3353,16 +3356,16 @@
         <v>46298</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
@@ -3378,13 +3381,13 @@
         <v>64</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>20</v>
@@ -3400,13 +3403,13 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>20</v>
@@ -3419,16 +3422,16 @@
         <v>46305</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>18</v>
@@ -3444,7 +3447,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-218</v>
@@ -3456,7 +3459,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -3468,7 +3471,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-545</v>
@@ -3480,7 +3483,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -3489,10 +3492,10 @@
         <v>46310</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-31</v>
@@ -3504,7 +3507,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -3513,10 +3516,10 @@
         <v>46310</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-14</v>
@@ -3528,7 +3531,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -3537,10 +3540,10 @@
         <v>46310</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-120</v>
@@ -3552,7 +3555,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -3561,10 +3564,10 @@
         <v>46310</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-20</v>
@@ -3576,7 +3579,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -3585,16 +3588,16 @@
         <v>46312</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
@@ -3607,16 +3610,16 @@
         <v>46319</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
@@ -3629,22 +3632,22 @@
         <v>46321</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -3653,22 +3656,22 @@
         <v>46322</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -3677,16 +3680,16 @@
         <v>46326</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -3699,23 +3702,23 @@
         <v>46326</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -4246,7 +4249,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4352,10 +4355,10 @@
         <v>46327</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-154</v>
@@ -4367,7 +4370,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -4376,16 +4379,16 @@
         <v>46333</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>18</v>
@@ -4401,13 +4404,13 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>20</v>
@@ -4423,13 +4426,13 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>20</v>
@@ -4442,16 +4445,16 @@
         <v>46340</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>18</v>
@@ -4467,7 +4470,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-218</v>
@@ -4479,7 +4482,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -4491,7 +4494,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-545</v>
@@ -4503,7 +4506,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -4512,10 +4515,10 @@
         <v>46341</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-31</v>
@@ -4527,7 +4530,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -4536,10 +4539,10 @@
         <v>46341</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-14</v>
@@ -4551,7 +4554,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -4560,10 +4563,10 @@
         <v>46341</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-120</v>
@@ -4575,7 +4578,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -4584,10 +4587,10 @@
         <v>46341</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-20</v>
@@ -4599,7 +4602,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -4608,16 +4611,16 @@
         <v>46347</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
@@ -4630,22 +4633,22 @@
         <v>46352</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -4654,22 +4657,22 @@
         <v>46353</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -4678,16 +4681,16 @@
         <v>46354</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -4700,10 +4703,10 @@
         <v>46356</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>-236.19</v>
@@ -4715,7 +4718,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -4724,23 +4727,23 @@
         <v>46356</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H22" s="18"/>
     </row>
@@ -5251,7 +5254,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5357,16 +5360,16 @@
         <v>46361</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
@@ -5382,13 +5385,13 @@
         <v>64</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>20</v>
@@ -5404,13 +5407,13 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>20</v>
@@ -5423,16 +5426,16 @@
         <v>46368</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>18</v>
@@ -5448,7 +5451,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-218</v>
@@ -5460,7 +5463,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -5472,7 +5475,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-545</v>
@@ -5484,7 +5487,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -5493,10 +5496,10 @@
         <v>46371</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-31</v>
@@ -5508,7 +5511,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -5517,10 +5520,10 @@
         <v>46371</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-14</v>
@@ -5532,7 +5535,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -5541,10 +5544,10 @@
         <v>46371</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-120</v>
@@ -5556,7 +5559,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -5565,10 +5568,10 @@
         <v>46371</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-20</v>
@@ -5580,7 +5583,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -5589,16 +5592,16 @@
         <v>46375</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
@@ -5611,22 +5614,22 @@
         <v>46382</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -5635,16 +5638,16 @@
         <v>46382</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>18</v>
@@ -5657,22 +5660,22 @@
         <v>46383</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -5681,20 +5684,20 @@
         <v>46383</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D20" s="15" t="n">
         <f aca="false">SUMIFS($D:$D,$A:$A,DATE(2026,12,27),$C:$C,"Stipendio netto")</f>
         <v>2380</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
@@ -5704,23 +5707,23 @@
         <v>46387</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -6443,7 +6446,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6560,17 +6563,19 @@
       <c r="G5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
         <v>46023</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-154</v>
@@ -6582,7 +6587,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -6591,22 +6596,22 @@
         <v>46024</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-49.99</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H7" s="18"/>
     </row>
@@ -6615,16 +6620,16 @@
         <v>46025</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>18</v>
@@ -6637,10 +6642,10 @@
         <v>46027</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-123.71</v>
@@ -6659,10 +6664,10 @@
         <v>46027</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-29.57</v>
@@ -6684,13 +6689,13 @@
         <v>64</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>20</v>
@@ -6706,13 +6711,13 @@
         <v>64</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>20</v>
@@ -6725,16 +6730,16 @@
         <v>46032</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>18</v>
@@ -6750,7 +6755,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-218</v>
@@ -6762,7 +6767,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -6774,7 +6779,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-545</v>
@@ -6786,7 +6791,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -6795,10 +6800,10 @@
         <v>46037</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-31</v>
@@ -6810,7 +6815,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -6819,10 +6824,10 @@
         <v>46037</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-14</v>
@@ -6834,7 +6839,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -6843,16 +6848,16 @@
         <v>46039</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>18</v>
@@ -6865,16 +6870,16 @@
         <v>46046</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>18</v>
@@ -6887,22 +6892,22 @@
         <v>46048</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -6911,22 +6916,22 @@
         <v>46049</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -6935,16 +6940,16 @@
         <v>46053</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>18</v>
@@ -6957,17 +6962,17 @@
         <v>46053</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D23" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>16</v>
@@ -7482,7 +7487,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7588,16 +7593,16 @@
         <v>46060</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
@@ -7610,10 +7615,10 @@
         <v>46068</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-120</v>
@@ -7625,7 +7630,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H7" s="18"/>
     </row>
@@ -7634,10 +7639,10 @@
         <v>46068</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-20</v>
@@ -7649,7 +7654,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H8" s="18"/>
     </row>
@@ -7661,13 +7666,13 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>20</v>
@@ -7683,13 +7688,13 @@
         <v>64</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>20</v>
@@ -7702,16 +7707,16 @@
         <v>46067</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>18</v>
@@ -7727,7 +7732,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-218</v>
@@ -7739,7 +7744,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -7751,7 +7756,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-545</v>
@@ -7763,7 +7768,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -7772,10 +7777,10 @@
         <v>46068</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-31</v>
@@ -7787,7 +7792,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -7796,10 +7801,10 @@
         <v>46068</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-14</v>
@@ -7811,7 +7816,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -7820,16 +7825,16 @@
         <v>46074</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
@@ -7842,22 +7847,22 @@
         <v>46079</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -7866,22 +7871,22 @@
         <v>46080</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -7890,10 +7895,10 @@
         <v>46081</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>-236.19</v>
@@ -7905,7 +7910,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -7914,16 +7919,16 @@
         <v>46081</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -7936,23 +7941,23 @@
         <v>46081</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -8485,7 +8490,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -8591,10 +8596,10 @@
         <v>46082</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-154</v>
@@ -8606,7 +8611,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -8615,10 +8620,10 @@
         <v>46096</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-120</v>
@@ -8630,7 +8635,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H7" s="18"/>
     </row>
@@ -8639,10 +8644,10 @@
         <v>46096</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-20</v>
@@ -8654,7 +8659,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H8" s="18"/>
     </row>
@@ -8663,16 +8668,16 @@
         <v>46088</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>18</v>
@@ -8688,13 +8693,13 @@
         <v>64</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>20</v>
@@ -8710,13 +8715,13 @@
         <v>64</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>20</v>
@@ -8729,16 +8734,16 @@
         <v>46095</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>18</v>
@@ -8754,7 +8759,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-218</v>
@@ -8766,7 +8771,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -8778,7 +8783,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-545</v>
@@ -8790,7 +8795,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -8799,10 +8804,10 @@
         <v>46096</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-31</v>
@@ -8814,7 +8819,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -8823,10 +8828,10 @@
         <v>46096</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-14</v>
@@ -8838,7 +8843,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -8847,16 +8852,16 @@
         <v>46102</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
@@ -8869,22 +8874,22 @@
         <v>46107</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -8893,22 +8898,22 @@
         <v>46108</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -8917,16 +8922,16 @@
         <v>46109</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -8939,23 +8944,23 @@
         <v>46112</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -9488,7 +9493,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -9594,16 +9599,16 @@
         <v>46116</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
@@ -9619,13 +9624,13 @@
         <v>64</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>20</v>
@@ -9641,13 +9646,13 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>20</v>
@@ -9660,16 +9665,16 @@
         <v>46123</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>18</v>
@@ -9685,7 +9690,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-218</v>
@@ -9697,7 +9702,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -9709,7 +9714,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-545</v>
@@ -9721,7 +9726,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -9730,10 +9735,10 @@
         <v>46127</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-31</v>
@@ -9745,7 +9750,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -9754,10 +9759,10 @@
         <v>46127</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-14</v>
@@ -9769,7 +9774,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -9778,10 +9783,10 @@
         <v>46127</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-120</v>
@@ -9793,7 +9798,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -9802,10 +9807,10 @@
         <v>46127</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-20</v>
@@ -9817,7 +9822,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -9826,16 +9831,16 @@
         <v>46130</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
@@ -9848,16 +9853,16 @@
         <v>46137</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
@@ -9870,22 +9875,22 @@
         <v>46138</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -9894,22 +9899,22 @@
         <v>46139</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -9918,23 +9923,23 @@
         <v>46142</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -10465,7 +10470,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10571,10 +10576,10 @@
         <v>46143</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-154</v>
@@ -10586,7 +10591,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -10595,16 +10600,16 @@
         <v>46144</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>18</v>
@@ -10617,16 +10622,16 @@
         <v>46151</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>18</v>
@@ -10642,13 +10647,13 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>20</v>
@@ -10664,13 +10669,13 @@
         <v>64</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>20</v>
@@ -10686,7 +10691,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-218</v>
@@ -10698,7 +10703,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -10710,7 +10715,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-545</v>
@@ -10722,7 +10727,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -10731,10 +10736,10 @@
         <v>46157</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-31</v>
@@ -10746,7 +10751,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -10755,10 +10760,10 @@
         <v>46157</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-14</v>
@@ -10770,7 +10775,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -10779,10 +10784,10 @@
         <v>46157</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-120</v>
@@ -10794,7 +10799,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -10803,10 +10808,10 @@
         <v>46157</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-20</v>
@@ -10818,7 +10823,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -10827,16 +10832,16 @@
         <v>46158</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
@@ -10849,16 +10854,16 @@
         <v>46165</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>18</v>
@@ -10871,10 +10876,10 @@
         <v>46168</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>-125.56</v>
@@ -10886,7 +10891,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -10895,22 +10900,22 @@
         <v>46169</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H20" s="18"/>
     </row>
@@ -10919,16 +10924,16 @@
         <v>46172</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>18</v>
@@ -10941,10 +10946,10 @@
         <v>46173</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D22" s="15" t="n">
         <v>-236.19</v>
@@ -10956,7 +10961,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H22" s="18"/>
     </row>
@@ -10965,23 +10970,23 @@
         <v>46173</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D23" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H23" s="18"/>
     </row>
@@ -11504,7 +11509,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -11610,16 +11615,16 @@
         <v>46179</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
@@ -11635,13 +11640,13 @@
         <v>64</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>20</v>
@@ -11657,13 +11662,13 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>20</v>
@@ -11676,16 +11681,16 @@
         <v>46186</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>18</v>
@@ -11701,7 +11706,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-218</v>
@@ -11713,7 +11718,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -11725,7 +11730,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-545</v>
@@ -11737,7 +11742,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -11746,10 +11751,10 @@
         <v>46188</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-31</v>
@@ -11761,7 +11766,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -11770,10 +11775,10 @@
         <v>46188</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-14</v>
@@ -11785,7 +11790,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -11794,10 +11799,10 @@
         <v>46188</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-120</v>
@@ -11809,7 +11814,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -11818,10 +11823,10 @@
         <v>46188</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-20</v>
@@ -11833,7 +11838,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -11842,16 +11847,16 @@
         <v>46193</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
@@ -11864,22 +11869,22 @@
         <v>46199</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-125.56</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="18"/>
     </row>
@@ -11888,22 +11893,22 @@
         <v>46200</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -11912,23 +11917,23 @@
         <v>46200</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D19" s="15" t="n">
         <f aca="false">SUMIFS($D:$D,$A:$A,DATE(2026,6,27),$C:$C,"Stipendio netto")</f>
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -11937,16 +11942,16 @@
         <v>46200</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -11959,23 +11964,23 @@
         <v>46203</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -12496,7 +12501,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -12602,16 +12607,16 @@
         <v>46235</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
@@ -12624,16 +12629,16 @@
         <v>46242</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>18</v>
@@ -12649,13 +12654,13 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>20</v>
@@ -12671,13 +12676,13 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>20</v>
@@ -12693,7 +12698,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-218</v>
@@ -12705,7 +12710,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H10" s="18"/>
     </row>
@@ -12717,7 +12722,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-545</v>
@@ -12729,7 +12734,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -12738,10 +12743,10 @@
         <v>46249</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-31</v>
@@ -12753,7 +12758,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -12762,10 +12767,10 @@
         <v>46249</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-14</v>
@@ -12777,7 +12782,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -12786,10 +12791,10 @@
         <v>46249</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-120</v>
@@ -12801,7 +12806,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -12810,10 +12815,10 @@
         <v>46249</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-20</v>
@@ -12825,7 +12830,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -12834,16 +12839,16 @@
         <v>46249</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
@@ -12856,16 +12861,16 @@
         <v>46256</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="15" t="n">
         <v>-170</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
@@ -12878,10 +12883,10 @@
         <v>46260</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D18" s="15" t="n">
         <v>-125.56</v>
@@ -12891,7 +12896,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -12900,22 +12905,22 @@
         <v>46261</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -12924,16 +12929,16 @@
         <v>46263</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="16" t="s">
         <v>18</v>
@@ -12946,10 +12951,10 @@
         <v>46265</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" s="15" t="n">
         <v>-236.19</v>
@@ -12961,7 +12966,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H21" s="18"/>
     </row>
@@ -12970,23 +12975,23 @@
         <v>46265</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H22" s="18"/>
     </row>

--- a/02-Schede/Calendario_Finanziario_Annuale_2026_v22.xlsx
+++ b/02-Schede/Calendario_Finanziario_Annuale_2026_v22.xlsx
@@ -16,26 +16,26 @@
     <sheet name="04-Apr" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="05-May" sheetId="7" state="visible" r:id="rId9"/>
     <sheet name="06-Jun" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="08-Aug" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="07-Jul" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="07-Jul" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="08-Aug" sheetId="10" state="visible" r:id="rId12"/>
     <sheet name="09-Sep" sheetId="11" state="visible" r:id="rId13"/>
     <sheet name="10-Oct" sheetId="12" state="visible" r:id="rId14"/>
     <sheet name="11-Nov" sheetId="13" state="visible" r:id="rId15"/>
     <sheet name="12-Dec" sheetId="14" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'01-Jan'!$A$3:$H$142</definedName>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'02-Feb'!$A$3:$H$142</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'03-Mar'!$A$3:$H$142</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'04-Apr'!$A$3:$H$142</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'05-May'!$A$3:$H$142</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'06-Jun'!$A$3:$H$142</definedName>
-    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'07-Jul'!$A$3:$H$142</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'08-Aug'!$A$3:$H$142</definedName>
-    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'09-Sep'!$A$3:$H$142</definedName>
-    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'10-Oct'!$A$3:$H$142</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'11-Nov'!$A$3:$H$142</definedName>
-    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'12-Dec'!$A$3:$H$142</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'01-Jan'!$A$3:$H$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'02-Feb'!$A$3:$H$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'03-Mar'!$A$3:$H$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'04-Apr'!$A$3:$H$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'05-May'!$A$3:$H$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'06-Jun'!$A$3:$H$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">'07-Jul'!$A$3:$H$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">'08-Aug'!$A$3:$H$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">'09-Sep'!$A$3:$H$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="11" name="_xlnm._FilterDatabase" vbProcedure="false">'10-Oct'!$A$3:$H$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">'11-Nov'!$A$3:$H$143</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">'12-Dec'!$A$3:$H$143</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="123">
   <si>
     <t xml:space="preserve">Calendario finanziario mensile</t>
   </si>
@@ -276,13 +276,13 @@
     <t xml:space="preserve">Sì</t>
   </si>
   <si>
-    <t xml:space="preserve">Casa</t>
+    <t xml:space="preserve">Utenza</t>
   </si>
   <si>
-    <t xml:space="preserve">Condominio (bimestrale)</t>
+    <t xml:space="preserve">WindTre Emanuele</t>
   </si>
   <si>
-    <t xml:space="preserve">Mesi dispari.</t>
+    <t xml:space="preserve">Essenziale.</t>
   </si>
   <si>
     <t xml:space="preserve">Amazon</t>
@@ -304,9 +304,6 @@
   </si>
   <si>
     <t xml:space="preserve">CC moglie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utenza</t>
   </si>
   <si>
     <t xml:space="preserve">Sorgenia elettricità</t>
@@ -336,10 +333,16 @@
     <t xml:space="preserve">WindTre fibra casa</t>
   </si>
   <si>
-    <t xml:space="preserve">Essenziale.</t>
+    <t xml:space="preserve">WindTre Noemi</t>
   </si>
   <si>
-    <t xml:space="preserve">WindTre figli</t>
+    <t xml:space="preserve">Casa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condominio (bimestrale)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesi dispari.</t>
   </si>
   <si>
     <t xml:space="preserve">Auto</t>
@@ -348,7 +351,7 @@
     <t xml:space="preserve">Assicurazione auto (mensile)</t>
   </si>
   <si>
-    <t xml:space="preserve">Da pagare entro fine mese (se no auto ferma dal 1°).</t>
+    <t xml:space="preserve">Da pagare entro fine mese (se no auto ferma)</t>
   </si>
   <si>
     <t xml:space="preserve">Entrate</t>
@@ -373,6 +376,9 @@
   </si>
   <si>
     <t xml:space="preserve">Spinaci extra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il 2,</t>
   </si>
   <si>
     <t xml:space="preserve">FEBRUARY 2026</t>
@@ -414,13 +420,10 @@
     <t xml:space="preserve">14ª mensilità</t>
   </si>
   <si>
-    <t xml:space="preserve">AUGUST 2026</t>
-  </si>
-  <si>
     <t xml:space="preserve">JULY 2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Regole operative del mese (promemoria)</t>
+    <t xml:space="preserve">AUGUST 2026</t>
   </si>
   <si>
     <t xml:space="preserve">SEPTEMBER 2026</t>
@@ -707,7 +710,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Normal" xfId="20"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -781,14 +784,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD1E7DD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1248,7 +1243,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1266,7 +1261,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1283,7 +1278,7 @@
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-321.54</v>
+        <v>-233.71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1315,13 +1310,13 @@
         <v>59</v>
       </c>
       <c r="K3" s="9" t="n">
-        <f aca="false">'06-Jun'!$K$3+$K$2</f>
-        <v>3285.57</v>
+        <f aca="false">'07-Jul'!$K$3+$K$2</f>
+        <v>3050.01</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
-        <v>46204</v>
+        <v>46235</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>60</v>
@@ -1345,7 +1340,7 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
-        <v>46204</v>
+        <v>46235</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>64</v>
@@ -1369,81 +1364,81 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
-        <v>46204</v>
+        <v>46235</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-154</v>
+        <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>70</v>
-      </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
-        <v>46207</v>
+        <v>46236</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-170</v>
+        <v>-6.99</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="H7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
-        <v>46212</v>
+        <v>46242</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-6.99</v>
+        <v>-170</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
-        <v>46213</v>
+        <v>46243</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
@@ -1459,35 +1454,35 @@
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
-        <v>46214</v>
+        <v>46244</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-170</v>
+        <v>-6.99</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
-        <v>46218</v>
+        <v>46249</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-218</v>
@@ -1499,19 +1494,19 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
-        <v>46218</v>
+        <v>46249</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-545</v>
@@ -1523,19 +1518,19 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
-        <v>46218</v>
+        <v>46249</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-31</v>
@@ -1547,22 +1542,22 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
-        <v>46218</v>
+        <v>46249</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-14</v>
+        <v>-6.99</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
@@ -1571,19 +1566,19 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
-        <v>46218</v>
+        <v>46249</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-120</v>
@@ -1595,19 +1590,19 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
-        <v>46218</v>
+        <v>46249</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-20</v>
@@ -1619,13 +1614,13 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
-        <v>46221</v>
+        <v>46249</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>75</v>
@@ -1647,7 +1642,7 @@
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
-        <v>46228</v>
+        <v>46256</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>75</v>
@@ -1667,100 +1662,122 @@
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
-        <v>46229</v>
+        <v>46260</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D19" s="15" t="n">
         <v>-125.56</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="E19" s="14"/>
       <c r="F19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
-        <v>46230</v>
+        <v>46261</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D20" s="15" t="n">
         <v>2380</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
-        <v>46234</v>
+        <v>46263</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="F21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="n">
+        <v>46265</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="15" t="n">
+        <v>-236.19</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="n">
+        <v>46265</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="15" t="n">
+      <c r="C23" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="G23" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13"/>
@@ -1772,34 +1789,34 @@
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2154,12 +2171,12 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="23"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,17 +2199,36 @@
       <c r="G65" s="23"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="18"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:H142"/>
+  <autoFilter ref="A3:H143"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A25:H25"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G62">
+  <conditionalFormatting sqref="G8:G63 A4:G7 A8:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"A"</formula>
     </cfRule>
@@ -2206,16 +2242,28 @@
       <formula>$F4="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F142" type="list">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F7" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E7" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H7" type="list">
+      <formula1>"Sì,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F6 F8:F143" type="list">
+      <formula1>"A,B,C,—"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E6 E8:E143" type="list">
+      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H6 H8:H143" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2241,7 +2289,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2259,7 +2307,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2276,7 +2324,7 @@
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-321.54</v>
+        <v>-321.52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2309,7 +2357,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'08-Aug'!$K$3+$K$2</f>
-        <v>2730.3</v>
+        <v>2728.49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2362,7 +2410,7 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
-        <v>46266</v>
+        <v>46267</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>68</v>
@@ -2371,7 +2419,7 @@
         <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-154</v>
+        <v>-6.99</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>62</v>
@@ -2414,7 +2462,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -2436,7 +2484,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
@@ -2480,7 +2528,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-218</v>
@@ -2492,7 +2540,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -2504,7 +2552,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-545</v>
@@ -2516,7 +2564,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -2525,10 +2573,10 @@
         <v>46280</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-31</v>
@@ -2540,7 +2588,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -2549,13 +2597,13 @@
         <v>46280</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-14</v>
+        <v>-6.99</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
@@ -2564,7 +2612,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -2573,10 +2621,10 @@
         <v>46280</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-120</v>
@@ -2588,7 +2636,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -2597,10 +2645,10 @@
         <v>46280</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-20</v>
@@ -2612,11 +2660,11 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
         <v>46284</v>
       </c>
@@ -2638,27 +2686,27 @@
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
-        <v>46291</v>
+        <v>46286</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>-154</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="15" t="n">
-        <v>-125.56</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -2667,101 +2715,115 @@
         <v>46291</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>-170</v>
+        <v>-125.56</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="H19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
-        <v>46292</v>
+        <v>46291</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>2380</v>
+        <v>-170</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>97</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" s="17"/>
       <c r="H20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
+        <v>46292</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>2380</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="n">
         <v>46295</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="15" t="n">
+      <c r="C22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
@@ -3145,12 +3207,12 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="23"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,17 +3235,26 @@
       <c r="G65" s="23"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="18"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:H142"/>
+  <autoFilter ref="A3:H143"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G62">
+  <conditionalFormatting sqref="G8:G63 A4:G7 A8:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"A"</formula>
     </cfRule>
@@ -3197,16 +3268,28 @@
       <formula>$F4="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F142" type="list">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F6" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Sì,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F5 F7:F143" type="list">
+      <formula1>"A,B,C,—"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E5 E7:E143" type="list">
+      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H5 H7:H143" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3232,7 +3315,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3250,7 +3333,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3267,7 +3350,7 @@
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3300,7 +3383,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'09-Sep'!$K$3+$K$2</f>
-        <v>2732.76</v>
+        <v>2730.97</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3353,57 +3436,59 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
-        <v>46298</v>
+        <v>46297</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
-        <v>46304</v>
+        <v>46298</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-6.99</v>
+        <v>0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
-        <v>46305</v>
+        <v>46304</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -3422,45 +3507,43 @@
         <v>46305</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-170</v>
+        <v>-6.99</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
-        <v>46310</v>
+        <v>46305</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-218</v>
+        <v>-170</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>84</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3471,10 +3554,10 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>-545</v>
+        <v>-218</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>62</v>
@@ -3483,7 +3566,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -3492,22 +3575,22 @@
         <v>46310</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>-31</v>
+        <v>-545</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -3516,13 +3599,13 @@
         <v>46310</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>-14</v>
+        <v>-31</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>62</v>
@@ -3531,7 +3614,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -3540,13 +3623,13 @@
         <v>46310</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-120</v>
+        <v>-6.99</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
@@ -3555,7 +3638,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -3564,13 +3647,13 @@
         <v>46310</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>-20</v>
+        <v>-120</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>62</v>
@@ -3579,35 +3662,37 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
-        <v>46312</v>
+        <v>46310</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>-170</v>
+        <v>-20</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
-        <v>46319</v>
+        <v>46312</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>75</v>
@@ -3627,74 +3712,74 @@
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
-        <v>46321</v>
+        <v>46319</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>-125.56</v>
+        <v>-170</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>92</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" s="17"/>
       <c r="H18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
-        <v>46322</v>
+        <v>46321</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>-125.56</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="15" t="n">
-        <v>2380</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
-        <v>46326</v>
+        <v>46322</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>0</v>
+        <v>2380</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="17"/>
       <c r="H20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3702,60 +3787,72 @@
         <v>46326</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="F21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="n">
+        <v>46326</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="15" t="n">
+      <c r="C22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="18"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -3766,10 +3863,10 @@
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,12 +4231,12 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="23"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4172,17 +4269,26 @@
       <c r="G66" s="23"/>
       <c r="H66" s="18"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="18"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:H142"/>
+  <autoFilter ref="A3:H143"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G62">
+  <conditionalFormatting sqref="G7:G63 A4:G6 A7:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"A"</formula>
     </cfRule>
@@ -4196,16 +4302,28 @@
       <formula>$F4="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F142" type="list">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F6" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Sì,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F5 F7:F143" type="list">
+      <formula1>"A,B,C,—"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E5 E7:E143" type="list">
+      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H5 H7:H143" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4231,7 +4349,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4249,7 +4367,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -4266,7 +4384,7 @@
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-557.73</v>
+        <v>-557.71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4299,7 +4417,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'10-Oct'!$K$3+$K$2</f>
-        <v>2175.03</v>
+        <v>2173.26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4352,7 +4470,7 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
-        <v>46327</v>
+        <v>46328</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>68</v>
@@ -4361,7 +4479,7 @@
         <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-154</v>
+        <v>-6.99</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>62</v>
@@ -4404,7 +4522,7 @@
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -4426,7 +4544,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
@@ -4470,7 +4588,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-218</v>
@@ -4482,7 +4600,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -4494,7 +4612,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-545</v>
@@ -4506,7 +4624,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -4515,10 +4633,10 @@
         <v>46341</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-31</v>
@@ -4530,7 +4648,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -4539,13 +4657,13 @@
         <v>46341</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-14</v>
+        <v>-6.99</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
@@ -4554,7 +4672,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -4563,10 +4681,10 @@
         <v>46341</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-120</v>
@@ -4578,7 +4696,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -4587,10 +4705,10 @@
         <v>46341</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-20</v>
@@ -4602,7 +4720,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -4611,115 +4729,115 @@
         <v>46347</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>-170</v>
+        <v>-154</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
-        <v>46352</v>
+        <v>46347</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>-125.56</v>
+        <v>-170</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="n">
+        <v>46352</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>-125.56</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
-        <v>46353</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="G19" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="15" t="n">
-        <v>2380</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
-        <v>46354</v>
+        <v>46353</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>-170</v>
+        <v>2380</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="17"/>
       <c r="H20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
-        <v>46356</v>
+        <v>46354</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>-236.19</v>
+        <v>-170</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>107</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" s="17"/>
       <c r="H21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4727,55 +4845,69 @@
         <v>46356</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="15" t="n">
+        <v>-236.19</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="n">
+        <v>46356</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="15" t="n">
+      <c r="C23" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
+      <c r="G23" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
@@ -5149,12 +5281,12 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="23"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5177,17 +5309,26 @@
       <c r="G65" s="23"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="18"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:H142"/>
+  <autoFilter ref="A3:H143"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G62">
+  <conditionalFormatting sqref="G7:G63 A4:G6 A7:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"A"</formula>
     </cfRule>
@@ -5201,16 +5342,28 @@
       <formula>$F4="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F142" type="list">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F6" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Sì,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F5 F7:F143" type="list">
+      <formula1>"A,B,C,—"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E5 E7:E143" type="list">
+      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H5 H7:H143" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5236,7 +5389,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5254,7 +5407,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -5271,7 +5424,7 @@
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>2212.46</v>
+        <v>2212.48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5304,7 +5457,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'11-Nov'!$K$3+$K$2</f>
-        <v>4387.49</v>
+        <v>4385.74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5357,57 +5510,59 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
-        <v>46361</v>
+        <v>46358</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-170</v>
+        <v>-6.99</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
-        <v>46365</v>
+        <v>46361</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-6.99</v>
+        <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
-        <v>46366</v>
+        <v>46365</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -5423,48 +5578,46 @@
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
-        <v>46368</v>
+        <v>46366</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-170</v>
+        <v>-6.99</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
-        <v>46371</v>
+        <v>46368</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-218</v>
+        <v>-170</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>84</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5475,10 +5628,10 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>-545</v>
+        <v>-218</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>62</v>
@@ -5487,7 +5640,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -5496,22 +5649,22 @@
         <v>46371</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>-31</v>
+        <v>-545</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -5520,13 +5673,13 @@
         <v>46371</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>-14</v>
+        <v>-31</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>62</v>
@@ -5535,7 +5688,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -5544,13 +5697,13 @@
         <v>46371</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-120</v>
+        <v>-6.99</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
@@ -5559,7 +5712,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -5568,13 +5721,13 @@
         <v>46371</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>-20</v>
+        <v>-120</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>62</v>
@@ -5583,100 +5736,100 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
-        <v>46375</v>
+        <v>46371</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>-170</v>
+        <v>-20</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
-        <v>46382</v>
+        <v>46375</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>-125.56</v>
+        <v>-170</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>92</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
         <v>46382</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>-170</v>
+        <v>-125.56</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="H18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
-        <v>46383</v>
+        <v>46382</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>2380</v>
+        <v>-170</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" s="17"/>
       <c r="H19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5684,78 +5837,92 @@
         <v>46383</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="D20" s="15" t="n">
+        <v>2380</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="n">
+        <v>46383</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="15" t="n">
         <f aca="false">SUMIFS($D:$D,$A:$A,DATE(2026,12,27),$C:$C,"Stipendio netto")</f>
         <v>2380</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+      <c r="F21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="n">
         <v>46387</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="15" t="n">
+      <c r="C22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
@@ -6139,12 +6306,12 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="23"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6167,17 +6334,26 @@
       <c r="G65" s="23"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="18"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:H142"/>
+  <autoFilter ref="A3:H143"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G62">
+  <conditionalFormatting sqref="G7:G63 A4:G6 A7:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"A"</formula>
     </cfRule>
@@ -6191,16 +6367,28 @@
       <formula>$F4="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F142" type="list">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F6" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Sì,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F5 F7:F143" type="list">
+      <formula1>"A,B,C,—"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E5 E7:E143" type="list">
+      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H5 H7:H143" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6226,7 +6414,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6262,11 +6450,11 @@
       </c>
       <c r="B3" s="8" t="n">
         <f aca="false">'01-Jan'!$K$2</f>
-        <v>295.19</v>
+        <v>293.22</v>
       </c>
       <c r="C3" s="8" t="n">
         <f aca="false">C2+B3</f>
-        <v>830.13</v>
+        <v>828.16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6275,11 +6463,11 @@
       </c>
       <c r="B4" s="8" t="n">
         <f aca="false">'02-Feb'!$K$2</f>
-        <v>276.27</v>
+        <v>276.29</v>
       </c>
       <c r="C4" s="8" t="n">
         <f aca="false">C3+B4</f>
-        <v>1106.4</v>
+        <v>1104.45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6288,11 +6476,11 @@
       </c>
       <c r="B5" s="8" t="n">
         <f aca="false">'03-Mar'!$K$2</f>
-        <v>358.46</v>
+        <v>358.48</v>
       </c>
       <c r="C5" s="8" t="n">
         <f aca="false">C4+B5</f>
-        <v>1464.86</v>
+        <v>1462.93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6301,11 +6489,11 @@
       </c>
       <c r="B6" s="8" t="n">
         <f aca="false">'04-Apr'!$K$2</f>
-        <v>172.46</v>
+        <v>172.48</v>
       </c>
       <c r="C6" s="8" t="n">
         <f aca="false">C5+B6</f>
-        <v>1637.32</v>
+        <v>1635.41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6314,11 +6502,11 @@
       </c>
       <c r="B7" s="8" t="n">
         <f aca="false">'05-May'!$K$2</f>
-        <v>122.27</v>
+        <v>122.29</v>
       </c>
       <c r="C7" s="8" t="n">
         <f aca="false">C6+B7</f>
-        <v>1759.59</v>
+        <v>1757.7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6327,11 +6515,11 @@
       </c>
       <c r="B8" s="8" t="n">
         <f aca="false">'06-Jun'!$K$2</f>
-        <v>2382.46</v>
+        <v>2382.48</v>
       </c>
       <c r="C8" s="8" t="n">
         <f aca="false">C7+B8</f>
-        <v>4142.05</v>
+        <v>4140.18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6340,11 +6528,11 @@
       </c>
       <c r="B9" s="8" t="n">
         <f aca="false">'07-Jul'!$K$2</f>
-        <v>-321.54</v>
+        <v>-321.52</v>
       </c>
       <c r="C9" s="8" t="n">
         <f aca="false">C8+B9</f>
-        <v>3820.51</v>
+        <v>3818.66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6353,11 +6541,11 @@
       </c>
       <c r="B10" s="8" t="n">
         <f aca="false">'08-Aug'!$K$2</f>
-        <v>-233.73</v>
+        <v>-233.71</v>
       </c>
       <c r="C10" s="8" t="n">
         <f aca="false">C9+B10</f>
-        <v>3586.78</v>
+        <v>3584.95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6366,11 +6554,11 @@
       </c>
       <c r="B11" s="8" t="n">
         <f aca="false">'09-Sep'!$K$2</f>
-        <v>-321.54</v>
+        <v>-321.52</v>
       </c>
       <c r="C11" s="8" t="n">
         <f aca="false">C10+B11</f>
-        <v>3265.24</v>
+        <v>3263.43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6379,11 +6567,11 @@
       </c>
       <c r="B12" s="8" t="n">
         <f aca="false">'10-Oct'!$K$2</f>
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="C12" s="8" t="n">
         <f aca="false">C11+B12</f>
-        <v>3267.7</v>
+        <v>3265.91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6392,11 +6580,11 @@
       </c>
       <c r="B13" s="8" t="n">
         <f aca="false">'11-Nov'!$K$2</f>
-        <v>-557.73</v>
+        <v>-557.71</v>
       </c>
       <c r="C13" s="8" t="n">
         <f aca="false">C12+B13</f>
-        <v>2709.97</v>
+        <v>2708.2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6405,11 +6593,11 @@
       </c>
       <c r="B14" s="8" t="n">
         <f aca="false">'12-Dec'!$K$2</f>
-        <v>2212.46</v>
+        <v>2212.48</v>
       </c>
       <c r="C14" s="8" t="n">
         <f aca="false">C13+B14</f>
-        <v>4922.43</v>
+        <v>4920.68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6418,11 +6606,11 @@
       </c>
       <c r="B15" s="9" t="n">
         <f aca="false">SUM(B3:B14)</f>
-        <v>4387.49</v>
+        <v>4385.74</v>
       </c>
       <c r="C15" s="9" t="n">
         <f aca="false">C14</f>
-        <v>4922.43</v>
+        <v>4920.68</v>
       </c>
     </row>
   </sheetData>
@@ -6444,9 +6632,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6456,7 +6642,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="46.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
@@ -6481,7 +6667,7 @@
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>295.19</v>
+        <v>293.22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6514,7 +6700,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">$K$2</f>
-        <v>295.19</v>
+        <v>293.22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6569,7 +6755,7 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
-        <v>46023</v>
+        <v>46024</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>68</v>
@@ -6578,7 +6764,7 @@
         <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-154</v>
+        <v>-6.99</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>62</v>
@@ -6642,10 +6828,10 @@
         <v>46027</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-123.71</v>
@@ -6664,10 +6850,10 @@
         <v>46027</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-29.57</v>
@@ -6689,7 +6875,7 @@
         <v>64</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-6.99</v>
@@ -6711,7 +6897,7 @@
         <v>64</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-6.99</v>
@@ -6755,7 +6941,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="15" t="n">
         <v>-218</v>
@@ -6767,7 +6953,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -6779,7 +6965,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-545</v>
@@ -6791,7 +6977,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -6800,10 +6986,10 @@
         <v>46037</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-31</v>
@@ -6815,7 +7001,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -6824,13 +7010,13 @@
         <v>46037</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>-14</v>
+        <v>-6.99</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>62</v>
@@ -6839,11 +7025,11 @@
         <v>18</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
         <v>46039</v>
       </c>
@@ -6865,150 +7051,166 @@
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
-        <v>46046</v>
+        <v>46043</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>0</v>
+        <v>-154</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="H19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
-        <v>46048</v>
+        <v>46046</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>-125.56</v>
+        <v>0</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>92</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" s="17"/>
       <c r="H20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
-        <v>46049</v>
+        <v>46048</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>-125.56</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="15" t="n">
-        <v>2380</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
-        <v>46053</v>
+        <v>46049</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>0</v>
+        <v>2380</v>
       </c>
       <c r="E22" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="17"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
         <v>46053</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="15" t="n">
-        <f aca="false">-(0)</f>
-        <v>-0</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>73</v>
-      </c>
       <c r="F23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="n">
+        <v>46053</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <f aca="false">-(1*1.99)</f>
+        <v>-1.99</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>102</v>
+      </c>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13"/>
@@ -7372,12 +7574,12 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="23"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7410,17 +7612,26 @@
       <c r="G66" s="23"/>
       <c r="H66" s="18"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="18"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:H142"/>
+  <autoFilter ref="A3:H143"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G62">
+  <conditionalFormatting sqref="G8:G63 A4:G7 A8:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"A"</formula>
     </cfRule>
@@ -7435,15 +7646,15 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F143" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E143" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H143" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7469,7 +7680,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7487,7 +7698,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -7504,7 +7715,7 @@
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>276.27</v>
+        <v>276.29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7537,7 +7748,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'01-Jan'!$K$3+$K$2</f>
-        <v>571.46</v>
+        <v>569.51</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7590,48 +7801,48 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
-        <v>46060</v>
+        <v>46055</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
-        <v>46068</v>
+        <v>46060</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>103</v>
-      </c>
+      <c r="G7" s="17"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7639,13 +7850,13 @@
         <v>46068</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-20</v>
+        <v>-120</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>62</v>
@@ -7654,41 +7865,43 @@
         <v>18</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
-        <v>46062</v>
+        <v>46068</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-6.99</v>
+        <v>-20</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="H9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
-        <v>46063</v>
+        <v>46062</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-6.99</v>
@@ -7704,48 +7917,46 @@
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
-        <v>46067</v>
+        <v>46063</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
-        <v>46068</v>
+        <v>46067</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>-218</v>
+        <v>0</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>84</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G12" s="17"/>
       <c r="H12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7756,10 +7967,10 @@
         <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>-545</v>
+        <v>-218</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>62</v>
@@ -7768,7 +7979,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -7777,22 +7988,22 @@
         <v>46068</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-31</v>
+        <v>-545</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -7801,13 +8012,13 @@
         <v>46068</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>-14</v>
+        <v>-31</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>62</v>
@@ -7816,101 +8027,101 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
-        <v>46074</v>
+        <v>46068</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="H16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
+        <v>46074</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="n">
         <v>46079</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="14" t="s">
+      <c r="B18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="C18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="15" t="n">
         <v>-125.56</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+      <c r="G18" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="n">
         <v>46080</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="14" t="s">
+      <c r="B19" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="15" t="n">
+      <c r="C19" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="15" t="n">
         <v>2380</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
-        <v>46081</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="15" t="n">
-        <v>-236.19</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="G19" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -7919,21 +8130,23 @@
         <v>46081</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>0</v>
+        <v>-236.19</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>109</v>
+      </c>
       <c r="H20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7941,60 +8154,72 @@
         <v>46081</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="F21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="n">
+        <v>46081</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="15" t="n">
+      <c r="C22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
+      <c r="G22" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="18"/>
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -8005,10 +8230,10 @@
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8373,12 +8598,12 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="23"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8401,17 +8626,26 @@
       <c r="G65" s="23"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="18"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:H142"/>
+  <autoFilter ref="A3:H143"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G62">
+  <conditionalFormatting sqref="G7:G63 A4:G6 A7:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"A"</formula>
     </cfRule>
@@ -8425,1019 +8659,28 @@
       <formula>$F4="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F8 F11:F142" type="list">
+  <dataValidations count="9">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F6" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E8 E11:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H8 H11:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F9:F10" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F5 F7:F9 F12:F143" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E9:E10" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E5 E7:E9 E12:E143" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H9:H10" type="list">
-      <formula1>"Sì,No"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="11"/>
-      <c r="G2" s="9"/>
-      <c r="J2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="9" t="n">
-        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>358.46</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="9" t="n">
-        <f aca="false">'02-Feb'!$K$3+$K$2</f>
-        <v>929.92</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
-        <v>46082</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="15" t="n">
-        <v>-742</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="18"/>
-    </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
-        <v>46082</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="15" t="n">
-        <v>-38</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
-        <v>46082</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="15" t="n">
-        <v>-154</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
-        <v>46096</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="15" t="n">
-        <v>-120</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
-        <v>46096</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="15" t="n">
-        <v>-20</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
-        <v>46088</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
-        <v>46090</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>-6.99</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
-        <v>46091</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="15" t="n">
-        <v>-6.99</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
-        <v>46095</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
-        <v>46096</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="15" t="n">
-        <v>-218</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
-        <v>46096</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="15" t="n">
-        <v>-545</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
-        <v>46096</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="15" t="n">
-        <v>-31</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
-        <v>46096</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="15" t="n">
-        <v>-14</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
-        <v>46102</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
-        <v>46107</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="15" t="n">
-        <v>-125.56</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
-        <v>46108</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="15" t="n">
-        <v>2380</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
-        <v>46109</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
-        <v>46112</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="15" t="n">
-        <f aca="false">-(0)</f>
-        <v>-0</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="18"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="18"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="18"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="18"/>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="18"/>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="18"/>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="18"/>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="18"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="18"/>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="18"/>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="18"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="18"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="18"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="18"/>
-    </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <autoFilter ref="A3:H142"/>
-  <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A23:H23"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A4:G62">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>$F4="A"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>$F4="B"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>$F4="C"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F9 F12:F142" type="list">
-      <formula1>"A,B,C,—"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E9 E12:E142" type="list">
-      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H9 H12:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H5 H7:H9 H12:H143" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9465,7 +8708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -9475,7 +8718,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9493,7 +8736,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -9510,7 +8753,7 @@
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>172.46</v>
+        <v>358.48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9542,13 +8785,13 @@
         <v>59</v>
       </c>
       <c r="K3" s="9" t="n">
-        <f aca="false">'03-Mar'!$K$3+$K$2</f>
-        <v>1102.38</v>
+        <f aca="false">'02-Feb'!$K$3+$K$2</f>
+        <v>927.99</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>60</v>
@@ -9572,7 +8815,7 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>64</v>
@@ -9596,57 +8839,59 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
-        <v>46116</v>
+        <v>46083</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
-        <v>46121</v>
+        <v>46088</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-6.99</v>
+        <v>0</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
-        <v>46122</v>
+        <v>46090</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -9662,86 +8907,84 @@
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
-        <v>46123</v>
+        <v>46091</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
-        <v>46127</v>
+        <v>46095</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-218</v>
+        <v>0</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>84</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
-        <v>46127</v>
+        <v>46096</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>-545</v>
+        <v>-120</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
-        <v>46127</v>
+        <v>46096</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>-31</v>
+        <v>-20</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>62</v>
@@ -9750,70 +8993,70 @@
         <v>18</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="H12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
-        <v>46127</v>
+        <v>46096</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>-14</v>
+        <v>-218</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
-        <v>46127</v>
+        <v>46096</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-120</v>
+        <v>-545</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="H14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
-        <v>46127</v>
+        <v>46096</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>-20</v>
+        <v>-31</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>62</v>
@@ -9822,166 +9065,194 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="H15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
-        <v>46130</v>
+        <v>46096</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>-170</v>
+        <v>-6.99</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
-        <v>46137</v>
+        <v>46102</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>-170</v>
+        <v>-154</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
-        <v>46138</v>
+        <v>46102</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>-125.56</v>
+        <v>0</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>92</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" s="17"/>
       <c r="H18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
-        <v>46139</v>
+        <v>46107</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>-125.56</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="15" t="n">
-        <v>2380</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
-        <v>46142</v>
+        <v>46108</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="15" t="n">
+        <v>2380</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="n">
+        <v>46109</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="F21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="n">
+        <v>46112</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="15" t="n">
+      <c r="C22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="G22" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="18"/>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
@@ -10365,12 +9636,12 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="23"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10393,17 +9664,26 @@
       <c r="G65" s="23"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="18"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:H142"/>
+  <autoFilter ref="A3:H143"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G62">
+  <conditionalFormatting sqref="G8:G63 A4:G7 A8:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"A"</formula>
     </cfRule>
@@ -10417,16 +9697,1052 @@
       <formula>$F4="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F142" type="list">
+  <dataValidations count="9">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F6" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Sì,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F5 F7 F10:F143" type="list">
+      <formula1>"A,B,C,—"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E5 E7 E10:E143" type="list">
+      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H5 H7 H10:H143" type="list">
+      <formula1>"Sì,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F8:F9" type="list">
+      <formula1>"A,B,C,—"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E8:E9" type="list">
+      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H8:H9" type="list">
+      <formula1>"Sì,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="45.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="20.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.16"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="J2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="9" t="n">
+        <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
+        <v>172.48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <f aca="false">'03-Mar'!$K$3+$K$2</f>
+        <v>1100.47</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
+        <v>46113</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>-742</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="n">
+        <v>46113</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>-38</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
+        <v>46114</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="15" t="n">
+        <v>-6.99</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
+        <v>46116</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
+        <v>46121</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>-6.99</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="n">
+        <v>46122</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>-6.99</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="n">
+        <v>46123</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="n">
+        <v>46127</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="15" t="n">
+        <v>-218</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
+        <v>46127</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="15" t="n">
+        <v>-545</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="n">
+        <v>46127</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="15" t="n">
+        <v>-31</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="n">
+        <v>46127</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="15" t="n">
+        <v>-6.99</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="n">
+        <v>46127</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="15" t="n">
+        <v>-120</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="n">
+        <v>46127</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="15" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="n">
+        <v>46130</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="15" t="n">
+        <v>-170</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="n">
+        <v>46137</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>-170</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="n">
+        <v>46138</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>-125.56</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="n">
+        <v>46139</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="15" t="n">
+        <v>2380</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="n">
+        <v>46142</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <f aca="false">-(0)</f>
+        <v>-0</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="18"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="18"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="13"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="13"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="A3:H143"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A23:H23"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G7:G63 A4:G6 A7:F63">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>$F4="A"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>$F4="B"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>$F4="C"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F6" type="list">
+      <formula1>"A,B,C,—"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6" type="list">
+      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Sì,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F5 F7:F143" type="list">
+      <formula1>"A,B,C,—"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E5 E7:E143" type="list">
+      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H5 H7:H143" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10452,7 +10768,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10470,7 +10786,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -10487,7 +10803,7 @@
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>122.27</v>
+        <v>122.29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10520,7 +10836,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'04-Apr'!$K$3+$K$2</f>
-        <v>1224.65</v>
+        <v>1222.76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10573,26 +10889,24 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
-        <v>46143</v>
+        <v>46144</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-154</v>
+        <v>0</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>70</v>
-      </c>
+      <c r="G6" s="17"/>
       <c r="H6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10600,21 +10914,23 @@
         <v>46144</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="H7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10647,7 +10963,7 @@
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
@@ -10669,7 +10985,7 @@
         <v>64</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>-6.99</v>
@@ -10691,7 +11007,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
         <v>-218</v>
@@ -10703,7 +11019,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -10715,7 +11031,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
         <v>-545</v>
@@ -10727,7 +11043,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -10736,10 +11052,10 @@
         <v>46157</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
         <v>-31</v>
@@ -10751,7 +11067,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -10760,13 +11076,13 @@
         <v>46157</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-14</v>
+        <v>-6.99</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
@@ -10775,7 +11091,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -10784,10 +11100,10 @@
         <v>46157</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
         <v>-120</v>
@@ -10799,7 +11115,7 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="18"/>
     </row>
@@ -10808,10 +11124,10 @@
         <v>46157</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16" s="15" t="n">
         <v>-20</v>
@@ -10823,7 +11139,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H16" s="18"/>
     </row>
@@ -10849,176 +11165,190 @@
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
-        <v>46165</v>
+        <v>46163</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D18" s="15" t="n">
-        <v>0</v>
+        <v>-154</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="17" t="s">
+        <v>90</v>
+      </c>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
-        <v>46168</v>
+        <v>46165</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>-125.56</v>
+        <v>0</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>92</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" s="17"/>
       <c r="H19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
-        <v>46169</v>
+        <v>46168</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="15" t="n">
+        <v>-125.56</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="15" t="n">
-        <v>2380</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
-        <v>46172</v>
+        <v>46169</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>0</v>
+        <v>2380</v>
       </c>
       <c r="E21" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="17"/>
       <c r="H21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
-        <v>46173</v>
+        <v>46172</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D22" s="15" t="n">
-        <v>-236.19</v>
+        <v>0</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>107</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" s="17"/>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
         <v>46173</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="15" t="n">
+        <v>-236.19</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="n">
+        <v>46173</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="15" t="n">
+      <c r="C24" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E24" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="18"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13"/>
@@ -11382,12 +11712,12 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="23"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11420,17 +11750,26 @@
       <c r="G66" s="23"/>
       <c r="H66" s="18"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="18"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:H142"/>
+  <autoFilter ref="A3:H143"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G62">
+  <conditionalFormatting sqref="G9:G63 A4:G8 A9:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"A"</formula>
     </cfRule>
@@ -11444,16 +11783,28 @@
       <formula>$F4="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F8 F11:F142" type="list">
+  <dataValidations count="9">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F7" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E8 E11:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E7" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H8 H11:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H7" type="list">
+      <formula1>"Sì,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F6 F8 F11:F143" type="list">
+      <formula1>"A,B,C,—"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E6 E8 E11:E143" type="list">
+      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H6 H8 H11:H143" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11491,7 +11842,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11509,7 +11860,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -11526,7 +11877,7 @@
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>2382.46</v>
+        <v>2382.48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11559,7 +11910,7 @@
       </c>
       <c r="K3" s="9" t="n">
         <f aca="false">'05-May'!$K$3+$K$2</f>
-        <v>3607.11</v>
+        <v>3605.24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11612,57 +11963,59 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
-        <v>46179</v>
+        <v>46175</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-170</v>
+        <v>-6.99</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
-        <v>46182</v>
+        <v>46179</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-6.99</v>
+        <v>-170</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
-        <v>46183</v>
+        <v>46182</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -11678,48 +12031,46 @@
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
-        <v>46186</v>
+        <v>46183</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-170</v>
+        <v>-6.99</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
-        <v>46188</v>
+        <v>46186</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-218</v>
+        <v>-170</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>84</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11730,10 +12081,10 @@
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>-545</v>
+        <v>-218</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>62</v>
@@ -11742,7 +12093,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" s="18"/>
     </row>
@@ -11751,22 +12102,22 @@
         <v>46188</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>-31</v>
+        <v>-545</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18"/>
     </row>
@@ -11775,13 +12126,13 @@
         <v>46188</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>-14</v>
+        <v>-31</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>62</v>
@@ -11790,7 +12141,7 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H13" s="18"/>
     </row>
@@ -11799,13 +12150,13 @@
         <v>46188</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-120</v>
+        <v>-6.99</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
@@ -11814,7 +12165,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="H14" s="18"/>
     </row>
@@ -11823,13 +12174,13 @@
         <v>46188</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>-20</v>
+        <v>-120</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>62</v>
@@ -11838,77 +12189,77 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
-        <v>46193</v>
+        <v>46188</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>-170</v>
+        <v>-20</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
-        <v>46199</v>
+        <v>46193</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D17" s="15" t="n">
-        <v>-125.56</v>
+        <v>-170</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="n">
+        <v>46199</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>-125.56</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
-        <v>46200</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="G18" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="15" t="n">
-        <v>2380</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>97</v>
       </c>
       <c r="H18" s="18"/>
     </row>
@@ -11917,23 +12268,22 @@
         <v>46200</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D19" s="15" t="n">
-        <f aca="false">SUMIFS($D:$D,$A:$A,DATE(2026,6,27),$C:$C,"Stipendio netto")</f>
         <v>2380</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H19" s="18"/>
     </row>
@@ -11942,77 +12292,92 @@
         <v>46200</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>0</v>
+        <f aca="false">SUMIFS($D:$D,$A:$A,DATE(2026,6,27),$C:$C,"Stipendio netto")</f>
+        <v>2380</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="17"/>
       <c r="H20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
+        <v>46200</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="n">
         <v>46203</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="15" t="n">
+      <c r="C22" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="15" t="n">
         <f aca="false">-(0)</f>
         <v>-0</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="17" t="s">
+        <v>110</v>
+      </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
@@ -12396,12 +12761,12 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="23"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12424,17 +12789,26 @@
       <c r="G65" s="23"/>
       <c r="H65" s="18"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="18"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:H142"/>
+  <autoFilter ref="A3:H143"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G62">
+  <conditionalFormatting sqref="G7:G63 A4:G6 A7:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"A"</formula>
     </cfRule>
@@ -12448,16 +12822,28 @@
       <formula>$F4="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F142" type="list">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F5 F7:F143" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E5 E7:E143" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H5 H7:H143" type="list">
+      <formula1>"Sì,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F6" type="list">
+      <formula1>"A,B,C,—"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6" type="list">
+      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12483,7 +12869,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7578125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12501,7 +12887,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -12518,7 +12904,7 @@
       </c>
       <c r="K2" s="9" t="n">
         <f aca="false">SUMIF($A:$A,"&lt;&gt;",$D:$D)</f>
-        <v>-233.73</v>
+        <v>-321.52</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12550,13 +12936,13 @@
         <v>59</v>
       </c>
       <c r="K3" s="9" t="n">
-        <f aca="false">'07-Jul'!$K$3+$K$2</f>
-        <v>3051.84</v>
+        <f aca="false">'06-Jun'!$K$3+$K$2</f>
+        <v>3283.72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>60</v>
@@ -12580,7 +12966,7 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>64</v>
@@ -12604,29 +12990,31 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
-        <v>46235</v>
+        <v>46205</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
-        <v>46242</v>
+        <v>46207</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>75</v>
@@ -12648,13 +13036,13 @@
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
-        <v>46243</v>
+        <v>46212</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="15" t="n">
         <v>-6.99</v>
@@ -12670,13 +13058,13 @@
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
-        <v>46244</v>
+        <v>46213</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="n">
         <v>-6.99</v>
@@ -12692,40 +13080,38 @@
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
-        <v>46249</v>
+        <v>46214</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-218</v>
+        <v>-170</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>84</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="n">
-        <v>46249</v>
+        <v>46218</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>-545</v>
+        <v>-218</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>62</v>
@@ -12734,46 +13120,46 @@
         <v>16</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
-        <v>46249</v>
+        <v>46218</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="15" t="n">
-        <v>-31</v>
+        <v>-545</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>62</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
-        <v>46249</v>
+        <v>46218</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D13" s="15" t="n">
-        <v>-14</v>
+        <v>-31</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>62</v>
@@ -12782,22 +13168,22 @@
         <v>18</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
-        <v>46249</v>
+        <v>46218</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D14" s="15" t="n">
-        <v>-120</v>
+        <v>-6.99</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>62</v>
@@ -12806,22 +13192,22 @@
         <v>18</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="H14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
-        <v>46249</v>
+        <v>46218</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D15" s="15" t="n">
-        <v>-20</v>
+        <v>-120</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>62</v>
@@ -12830,35 +13216,37 @@
         <v>18</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="n">
-        <v>46249</v>
+        <v>46218</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D16" s="15" t="n">
-        <v>-170</v>
+        <v>-20</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>105</v>
+      </c>
       <c r="H16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="n">
-        <v>46256</v>
+        <v>46221</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>75</v>
@@ -12880,105 +13268,107 @@
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="n">
-        <v>46260</v>
+        <v>46224</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>-154</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>90</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="15" t="n">
-        <v>-125.56</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="H18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
-        <v>46261</v>
+        <v>46228</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D19" s="15" t="n">
-        <v>2380</v>
+        <v>-170</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>97</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" s="17"/>
       <c r="H19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
-        <v>46263</v>
+        <v>46229</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D20" s="15" t="n">
-        <v>0</v>
+        <v>-125.56</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="17"/>
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>93</v>
+      </c>
       <c r="H20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
-        <v>46265</v>
+        <v>46230</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D21" s="15" t="n">
-        <v>-236.19</v>
+        <v>2380</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D22" s="15" t="n">
         <f aca="false">-(0)</f>
@@ -12991,18 +13381,18 @@
         <v>16</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13017,22 +13407,22 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13397,12 +13787,12 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="23"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13435,17 +13825,16 @@
       <c r="G66" s="23"/>
       <c r="H66" s="18"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A3:H142"/>
+  <autoFilter ref="A3:H143"/>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A24:H24"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:G62">
+  <conditionalFormatting sqref="G8:G63 A4:G7 A8:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"A"</formula>
     </cfRule>
@@ -13459,16 +13848,28 @@
       <formula>$F4="C"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F142" type="list">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F6" type="list">
       <formula1>"A,B,C,—"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E6" type="list">
       <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H142" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Sì,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F4:F5 F7:F143" type="list">
+      <formula1>"A,B,C,—"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E4:E5 E7:E143" type="list">
+      <formula1>"SDD,Accredito,Bancomat,CC moglie,Contanti,Buoni pasto,Gift card,Altro"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="H4:H5 H7:H143" type="list">
       <formula1>"Sì,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
